--- a/Singapore/metro/station_line_list/station_list.xlsx
+++ b/Singapore/metro/station_line_list/station_list.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wei Zhou\Documents\zhouwei file\Github-Project\VeDa-SG-Public-Transit-System\metro\station_line_list\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wei Zhou\Documents\zhouwei file\Github-Project\VeDa-Public-Transit-Network\Singapore\metro\station_line_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5B5503A-E737-4B84-9978-E8515882DFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A722F665-3A16-45BA-BFDF-7DDB86E67C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="line" sheetId="3" r:id="rId1"/>
+    <sheet name="line_info" sheetId="3" r:id="rId1"/>
     <sheet name="transfer" sheetId="6" r:id="rId2"/>
     <sheet name="BP" sheetId="7" r:id="rId3"/>
     <sheet name="BPC" sheetId="8" r:id="rId4"/>
@@ -31,14 +31,14 @@
     <sheet name="TE" sheetId="23" r:id="rId16"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">line!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">line_info!#REF!</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1326" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="513">
   <si>
     <t>East-West Line</t>
   </si>
@@ -1330,9 +1330,6 @@
     <t>Bukit Brown</t>
   </si>
   <si>
-    <t>None</t>
-  </si>
-  <si>
     <t>Hume</t>
   </si>
   <si>
@@ -1489,9 +1486,6 @@
     <t>Bedok South</t>
   </si>
   <si>
-    <t>Line name</t>
-  </si>
-  <si>
     <t>Transfer type</t>
   </si>
   <si>
@@ -1580,6 +1574,9 @@
   </si>
   <si>
     <t>#748477</t>
+  </si>
+  <si>
+    <t>u/c</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2146,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2160,33 +2157,12 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2194,19 +2170,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2222,13 +2189,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2247,28 +2207,16 @@
     <xf numFmtId="165" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2301,7 +2249,7 @@
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2673,14 +2621,15 @@
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="19" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.85546875" style="1" customWidth="1"/>
-    <col min="3" max="4" width="13" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13" style="1" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="13" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="11" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
@@ -2693,370 +2642,370 @@
     <col min="15" max="15" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="27" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:14" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>483</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>485</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="D1" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+    </row>
+    <row r="2" spans="1:14" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E2" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K2" s="26"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="27"/>
+    </row>
+    <row r="3" spans="1:14" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>500</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>284</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>454</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K3" s="26"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="27"/>
+    </row>
+    <row r="4" spans="1:14" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E4" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K4" s="26"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="27"/>
+    </row>
+    <row r="5" spans="1:14" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>424</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>501</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K5" s="26"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+    </row>
+    <row r="6" spans="1:14" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>423</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>503</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E6" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K6" s="26"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="27"/>
+    </row>
+    <row r="7" spans="1:14" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>504</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>418</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>511</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="K7" s="26"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27"/>
+    </row>
+    <row r="8" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="E8" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>497</v>
       </c>
-      <c r="D1" s="23" t="s">
-        <v>419</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>501</v>
-      </c>
-      <c r="F1" s="23" t="s">
+      <c r="B9" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="E9" s="30" t="s">
+        <v>506</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-    </row>
-    <row r="2" spans="1:14" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="B2" s="44" t="s">
-        <v>455</v>
-      </c>
-      <c r="C2" s="44" t="s">
-        <v>455</v>
-      </c>
-      <c r="D2" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="E2" s="55" t="s">
-        <v>513</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>443</v>
-      </c>
-      <c r="K2" s="45"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-    </row>
-    <row r="3" spans="1:14" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
-        <v>284</v>
-      </c>
-      <c r="B3" s="44" t="s">
-        <v>455</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>502</v>
-      </c>
-      <c r="D3" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>513</v>
-      </c>
-      <c r="F3" s="28" t="s">
+      <c r="K9" s="8"/>
+      <c r="M9" s="29"/>
+      <c r="N9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>496</v>
+      </c>
+      <c r="D10" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="E10" s="31" t="s">
+        <v>507</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="M10" s="29"/>
+      <c r="N10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>489</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="M11" s="29"/>
+      <c r="N11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="K3" s="45"/>
-      <c r="M3" s="46"/>
-      <c r="N3" s="46"/>
-    </row>
-    <row r="4" spans="1:14" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>425</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>504</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>504</v>
-      </c>
-      <c r="D4" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>513</v>
-      </c>
-      <c r="F4" s="28" t="s">
+      <c r="B12" s="9" t="s">
+        <v>494</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>444</v>
       </c>
-      <c r="K4" s="45"/>
-      <c r="M4" s="46"/>
-      <c r="N4" s="46"/>
-    </row>
-    <row r="5" spans="1:14" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>424</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>503</v>
-      </c>
-      <c r="C5" s="44" t="s">
-        <v>503</v>
-      </c>
-      <c r="D5" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>513</v>
-      </c>
-      <c r="F5" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="K5" s="45"/>
-      <c r="M5" s="46"/>
-      <c r="N5" s="46"/>
-    </row>
-    <row r="6" spans="1:14" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>423</v>
-      </c>
-      <c r="B6" s="44" t="s">
+      <c r="D12" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="E12" s="32" t="s">
+        <v>510</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="M12" s="29"/>
+      <c r="N12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" s="28" t="s">
+        <v>488</v>
+      </c>
+      <c r="D13" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="E13" s="33" t="s">
         <v>505</v>
       </c>
-      <c r="C6" s="44" t="s">
-        <v>505</v>
-      </c>
-      <c r="D6" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>513</v>
-      </c>
-      <c r="F6" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="K6" s="45"/>
-      <c r="M6" s="46"/>
-      <c r="N6" s="46"/>
-    </row>
-    <row r="7" spans="1:14" s="43" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="44" t="s">
-        <v>422</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>506</v>
-      </c>
-      <c r="C7" s="44" t="s">
-        <v>506</v>
-      </c>
-      <c r="D7" s="44" t="s">
-        <v>418</v>
-      </c>
-      <c r="E7" s="55" t="s">
-        <v>513</v>
-      </c>
-      <c r="F7" s="28" t="s">
-        <v>444</v>
-      </c>
-      <c r="K7" s="45"/>
-      <c r="M7" s="46"/>
-      <c r="N7" s="46"/>
-    </row>
-    <row r="8" spans="1:14" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>500</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>500</v>
-      </c>
-      <c r="D8" s="47" t="s">
+      <c r="F13" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="M13" s="29"/>
+      <c r="N13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>487</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="E8" s="49" t="s">
+      <c r="E14" s="34" t="s">
         <v>508</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="K8" s="17"/>
-      <c r="M8" s="48"/>
-      <c r="N8" s="48"/>
-    </row>
-    <row r="9" spans="1:14" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>392</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>499</v>
-      </c>
-      <c r="D9" s="47" t="s">
+      <c r="F14" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="29"/>
+    </row>
+    <row r="15" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>486</v>
+      </c>
+      <c r="D15" s="28" t="s">
         <v>420</v>
       </c>
-      <c r="E9" s="49" t="s">
-        <v>508</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="K9" s="17"/>
-      <c r="M9" s="48"/>
-      <c r="N9" s="48"/>
-    </row>
-    <row r="10" spans="1:14" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>208</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="C10" s="19" t="s">
-        <v>498</v>
-      </c>
-      <c r="D10" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="E10" s="50" t="s">
+      <c r="E15" s="35" t="s">
         <v>509</v>
       </c>
-      <c r="F10" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="M10" s="48"/>
-      <c r="N10" s="48"/>
-    </row>
-    <row r="11" spans="1:14" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="47" t="s">
-        <v>491</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>491</v>
-      </c>
-      <c r="D11" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>512</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="M11" s="48"/>
-      <c r="N11" s="48"/>
-    </row>
-    <row r="12" spans="1:14" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>496</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="C12" s="19" t="s">
-        <v>445</v>
-      </c>
-      <c r="D12" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="E12" s="51" t="s">
-        <v>512</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="M12" s="48"/>
-      <c r="N12" s="48"/>
-    </row>
-    <row r="13" spans="1:14" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B13" s="47" t="s">
-        <v>490</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>490</v>
-      </c>
-      <c r="D13" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="E13" s="52" t="s">
-        <v>507</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="M13" s="48"/>
-      <c r="N13" s="48"/>
-    </row>
-    <row r="14" spans="1:14" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="C14" s="19" t="s">
-        <v>489</v>
-      </c>
-      <c r="D14" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="E14" s="53" t="s">
-        <v>510</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="M14" s="48"/>
-      <c r="N14" s="48"/>
-    </row>
-    <row r="15" spans="1:14" s="19" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
-        <v>267</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>488</v>
-      </c>
-      <c r="D15" s="47" t="s">
-        <v>420</v>
-      </c>
-      <c r="E15" s="54" t="s">
-        <v>511</v>
-      </c>
       <c r="F15" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="K15" s="17"/>
-      <c r="M15" s="48"/>
-      <c r="N15" s="48"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B19" s="24"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-    </row>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
+        <v>442</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3077,127 +3026,123 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="20" customWidth="1"/>
+    <col min="1" max="1" width="43" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="38" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="19" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2">
         <v>40285</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="6">
+      <c r="G2" s="1"/>
+      <c r="H2" s="3">
         <v>1.2926450000003999</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>103.861064999999</v>
       </c>
-      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5">
+      <c r="E3" s="1"/>
+      <c r="F3" s="2">
         <v>40922</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6">
+      <c r="G3" s="1"/>
+      <c r="H3" s="3">
         <v>1.28181000000012</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>103.859075</v>
       </c>
-      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="9" t="s">
         <v>392</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5">
+      <c r="E4" s="1"/>
+      <c r="F4" s="2">
         <v>40922</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6">
+      <c r="G4" s="1"/>
+      <c r="H4" s="3">
         <v>1.2752500000492499</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>103.855193333446</v>
       </c>
-      <c r="J4" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3211,58 +3156,57 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F38" sqref="F37:F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="20" customWidth="1"/>
+    <col min="1" max="1" width="43" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="38" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="19" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B2" s="1">
@@ -3271,7 +3215,7 @@
       <c r="C2" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E2" s="1"/>
@@ -3287,7 +3231,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B3" s="1">
@@ -3296,7 +3240,7 @@
       <c r="C3" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="9" t="s">
         <v>212</v>
       </c>
       <c r="E3" s="1"/>
@@ -3312,7 +3256,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B4" s="1">
@@ -3321,7 +3265,7 @@
       <c r="C4" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="9" t="s">
         <v>214</v>
       </c>
       <c r="E4" s="1"/>
@@ -3337,7 +3281,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B5" s="1">
@@ -3346,19 +3290,19 @@
       <c r="C5" s="1" t="s">
         <v>399</v>
       </c>
-      <c r="D5" s="19" t="s">
-        <v>431</v>
+      <c r="D5" s="9" t="s">
+        <v>430</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>430</v>
+        <v>512</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B6" s="1">
@@ -3367,7 +3311,7 @@
       <c r="C6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="9" t="s">
         <v>216</v>
       </c>
       <c r="E6" s="1"/>
@@ -3383,7 +3327,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B7" s="1">
@@ -3392,7 +3336,7 @@
       <c r="C7" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="9" t="s">
         <v>218</v>
       </c>
       <c r="E7" s="1"/>
@@ -3408,7 +3352,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B8" s="1">
@@ -3417,7 +3361,7 @@
       <c r="C8" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="9" t="s">
         <v>220</v>
       </c>
       <c r="E8" s="1"/>
@@ -3433,7 +3377,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B9" s="1">
@@ -3442,7 +3386,7 @@
       <c r="C9" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="9" t="s">
         <v>222</v>
       </c>
       <c r="E9" s="1"/>
@@ -3458,7 +3402,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B10" s="1">
@@ -3467,7 +3411,7 @@
       <c r="C10" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="9" t="s">
         <v>189</v>
       </c>
       <c r="E10" s="1"/>
@@ -3483,7 +3427,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B11" s="1">
@@ -3492,7 +3436,7 @@
       <c r="C11" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="9" t="s">
         <v>225</v>
       </c>
       <c r="E11" s="1"/>
@@ -3508,7 +3452,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B12" s="1">
@@ -3517,7 +3461,7 @@
       <c r="C12" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E12" s="1"/>
@@ -3533,7 +3477,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B13" s="1">
@@ -3542,7 +3486,7 @@
       <c r="C13" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="9" t="s">
         <v>133</v>
       </c>
       <c r="E13" s="1"/>
@@ -3558,7 +3502,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B14" s="1">
@@ -3567,7 +3511,7 @@
       <c r="C14" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="9" t="s">
         <v>229</v>
       </c>
       <c r="E14" s="1"/>
@@ -3583,7 +3527,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B15" s="1">
@@ -3592,7 +3536,7 @@
       <c r="C15" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E15" s="1"/>
@@ -3608,7 +3552,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B16" s="1">
@@ -3617,7 +3561,7 @@
       <c r="C16" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="9" t="s">
         <v>164</v>
       </c>
       <c r="E16" s="1"/>
@@ -3633,7 +3577,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B17" s="1">
@@ -3642,7 +3586,7 @@
       <c r="C17" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="9" t="s">
         <v>157</v>
       </c>
       <c r="E17" s="1"/>
@@ -3658,7 +3602,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B18" s="1">
@@ -3667,7 +3611,7 @@
       <c r="C18" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="9" t="s">
         <v>234</v>
       </c>
       <c r="E18" s="1"/>
@@ -3683,7 +3627,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B19" s="1">
@@ -3692,7 +3636,7 @@
       <c r="C19" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="9" t="s">
         <v>236</v>
       </c>
       <c r="E19" s="1"/>
@@ -3708,7 +3652,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B20" s="1">
@@ -3717,7 +3661,7 @@
       <c r="C20" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="9" t="s">
         <v>128</v>
       </c>
       <c r="E20" s="1"/>
@@ -3733,7 +3677,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B21" s="1">
@@ -3742,7 +3686,7 @@
       <c r="C21" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="9" t="s">
         <v>239</v>
       </c>
       <c r="E21" s="1"/>
@@ -3758,7 +3702,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B22" s="1">
@@ -3767,7 +3711,7 @@
       <c r="C22" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="9" t="s">
         <v>241</v>
       </c>
       <c r="E22" s="1"/>
@@ -3783,7 +3727,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B23" s="1">
@@ -3792,7 +3736,7 @@
       <c r="C23" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="9" t="s">
         <v>243</v>
       </c>
       <c r="E23" s="1"/>
@@ -3808,7 +3752,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B24" s="1">
@@ -3817,7 +3761,7 @@
       <c r="C24" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="9" t="s">
         <v>245</v>
       </c>
       <c r="E24" s="1"/>
@@ -3833,7 +3777,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B25" s="1">
@@ -3842,7 +3786,7 @@
       <c r="C25" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="9" t="s">
         <v>247</v>
       </c>
       <c r="E25" s="1"/>
@@ -3858,7 +3802,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B26" s="1">
@@ -3867,7 +3811,7 @@
       <c r="C26" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="9" t="s">
         <v>249</v>
       </c>
       <c r="E26" s="1"/>
@@ -3883,7 +3827,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B27" s="1">
@@ -3892,7 +3836,7 @@
       <c r="C27" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="9" t="s">
         <v>175</v>
       </c>
       <c r="E27" s="1"/>
@@ -3908,7 +3852,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B28" s="1">
@@ -3917,7 +3861,7 @@
       <c r="C28" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="9" t="s">
         <v>252</v>
       </c>
       <c r="E28" s="1"/>
@@ -3933,7 +3877,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B29" s="1">
@@ -3942,7 +3886,7 @@
       <c r="C29" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="9" t="s">
         <v>254</v>
       </c>
       <c r="E29" s="1"/>
@@ -3958,7 +3902,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B30" s="1">
@@ -3967,7 +3911,7 @@
       <c r="C30" s="1" t="s">
         <v>255</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="9" t="s">
         <v>256</v>
       </c>
       <c r="E30" s="1"/>
@@ -3983,7 +3927,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+      <c r="A31" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B31" s="1">
@@ -3992,7 +3936,7 @@
       <c r="C31" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="9" t="s">
         <v>258</v>
       </c>
       <c r="E31" s="1"/>
@@ -4008,7 +3952,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+      <c r="A32" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B32" s="1">
@@ -4017,7 +3961,7 @@
       <c r="C32" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="9" t="s">
         <v>260</v>
       </c>
       <c r="E32" s="1"/>
@@ -4033,7 +3977,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+      <c r="A33" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B33" s="1">
@@ -4042,7 +3986,7 @@
       <c r="C33" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="D33" s="9" t="s">
         <v>8</v>
       </c>
       <c r="E33" s="1"/>
@@ -4058,7 +4002,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="19" t="s">
+      <c r="A34" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B34" s="1">
@@ -4067,7 +4011,7 @@
       <c r="C34" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="9" t="s">
         <v>263</v>
       </c>
       <c r="E34" s="1"/>
@@ -4083,7 +4027,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="19" t="s">
+      <c r="A35" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B35" s="1">
@@ -4092,7 +4036,7 @@
       <c r="C35" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="9" t="s">
         <v>265</v>
       </c>
       <c r="E35" s="1"/>
@@ -4108,7 +4052,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="19" t="s">
+      <c r="A36" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B36" s="1">
@@ -4117,7 +4061,7 @@
       <c r="C36" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="1"/>
@@ -4133,42 +4077,42 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="19" t="s">
+      <c r="A37" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B37" s="1">
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="D37" s="19" t="s">
-        <v>453</v>
+        <v>450</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>452</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="2" t="s">
-        <v>430</v>
+        <v>512</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="19" t="s">
+      <c r="A38" s="9" t="s">
         <v>208</v>
       </c>
       <c r="B38" s="1">
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D38" s="19" t="s">
-        <v>454</v>
+        <v>451</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>453</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="2" t="s">
-        <v>430</v>
+        <v>512</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="3"/>
@@ -4193,872 +4137,871 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="20" customWidth="1"/>
+    <col min="1" max="1" width="43" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="38" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="19" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2">
         <v>32858</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="6">
+      <c r="G2" s="1"/>
+      <c r="H2" s="3">
         <v>1.3730799999999901</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>103.94928</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5">
+      <c r="E3" s="1"/>
+      <c r="F3" s="2">
         <v>32858</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6">
+      <c r="G3" s="1"/>
+      <c r="H3" s="3">
         <v>1.35418500022413</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>103.944080000431</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5">
+      <c r="E4" s="1"/>
+      <c r="F4" s="2">
         <v>32858</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6">
+      <c r="G4" s="1"/>
+      <c r="H4" s="3">
         <v>1.3431999999999999</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>103.95337000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5">
+      <c r="E5" s="1"/>
+      <c r="F5" s="2">
         <v>32816</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6">
+      <c r="G5" s="1"/>
+      <c r="H5" s="3">
         <v>1.3271999999999999</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>103.94653</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5">
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
         <v>32816</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6">
+      <c r="G6" s="1"/>
+      <c r="H6" s="3">
         <v>1.32403</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>103.93016</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5">
+      <c r="E7" s="1"/>
+      <c r="F7" s="2">
         <v>32816</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="6">
+      <c r="G7" s="1"/>
+      <c r="H7" s="3">
         <v>1.3210299999999899</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>103.91294000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5">
+      <c r="E8" s="1"/>
+      <c r="F8" s="2">
         <v>32816</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6">
+      <c r="G8" s="1"/>
+      <c r="H8" s="3">
         <v>1.31978999999999</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>103.90291000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5">
+      <c r="E9" s="1"/>
+      <c r="F9" s="2">
         <v>32816</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6">
+      <c r="G9" s="1"/>
+      <c r="H9" s="3">
         <v>1.31778500003273</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>103.89256499994799</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5">
+      <c r="E10" s="1"/>
+      <c r="F10" s="2">
         <v>32816</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="6">
+      <c r="G10" s="1"/>
+      <c r="H10" s="3">
         <v>1.3164400000000001</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>103.88289</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="5">
+      <c r="E11" s="1"/>
+      <c r="F11" s="2">
         <v>32816</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="6">
+      <c r="G11" s="1"/>
+      <c r="H11" s="3">
         <v>1.3114699999999999</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="3">
         <v>103.87135000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="5">
+      <c r="E12" s="1"/>
+      <c r="F12" s="2">
         <v>32816</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="6">
+      <c r="G12" s="1"/>
+      <c r="H12" s="3">
         <v>1.3074699999999999</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <v>103.86287</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5">
+      <c r="E13" s="1"/>
+      <c r="F13" s="2">
         <v>32816</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6">
+      <c r="G13" s="1"/>
+      <c r="H13" s="3">
         <v>1.30010500005003</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="3">
         <v>103.8563250001</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5">
+      <c r="E14" s="1"/>
+      <c r="F14" s="2">
         <v>32123</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="6">
+      <c r="G14" s="1"/>
+      <c r="H14" s="3">
         <v>1.29308000000032</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <v>103.852679999999</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="9" t="s">
         <v>118</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="5">
+      <c r="E15" s="1"/>
+      <c r="F15" s="2">
         <v>32123</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="6">
+      <c r="G15" s="1"/>
+      <c r="H15" s="3">
         <v>1.28437000000024</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="3">
         <v>103.851495</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="5">
+      <c r="E16" s="1"/>
+      <c r="F16" s="2">
         <v>32123</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6">
+      <c r="G16" s="1"/>
+      <c r="H16" s="3">
         <v>1.2766200000000001</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="3">
         <v>103.84578</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5">
+      <c r="E17" s="1"/>
+      <c r="F17" s="2">
         <v>32123</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6">
+      <c r="G17" s="1"/>
+      <c r="H17" s="3">
         <v>1.28098000001501</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="3">
         <v>103.83929000008099</v>
       </c>
     </row>
-    <row r="18" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="5">
+      <c r="E18" s="1"/>
+      <c r="F18" s="2">
         <v>32214</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6">
+      <c r="G18" s="1"/>
+      <c r="H18" s="3">
         <v>1.2862</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <v>103.82683</v>
       </c>
     </row>
-    <row r="19" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="30" t="s">
+      <c r="D19" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="E19" s="4"/>
-      <c r="F19" s="5">
+      <c r="E19" s="1"/>
+      <c r="F19" s="2">
         <v>32214</v>
       </c>
-      <c r="G19" s="4"/>
-      <c r="H19" s="6">
+      <c r="G19" s="1"/>
+      <c r="H19" s="3">
         <v>1.28965</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="3">
         <v>103.81675</v>
       </c>
     </row>
-    <row r="20" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B20" s="4">
+      <c r="B20" s="1">
         <v>19</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D20" s="30" t="s">
+      <c r="D20" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="4"/>
-      <c r="F20" s="5">
+      <c r="E20" s="1"/>
+      <c r="F20" s="2">
         <v>32214</v>
       </c>
-      <c r="G20" s="4"/>
-      <c r="H20" s="6">
+      <c r="G20" s="1"/>
+      <c r="H20" s="3">
         <v>1.2946899999999899</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="3">
         <v>103.806</v>
       </c>
     </row>
-    <row r="21" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B21" s="4">
+      <c r="B21" s="1">
         <v>20</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="4"/>
-      <c r="F21" s="5">
+      <c r="E21" s="1"/>
+      <c r="F21" s="2">
         <v>32214</v>
       </c>
-      <c r="G21" s="4"/>
-      <c r="H21" s="6">
+      <c r="G21" s="1"/>
+      <c r="H21" s="3">
         <v>1.3024799999999901</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="3">
         <v>103.79827</v>
       </c>
     </row>
-    <row r="22" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="4">
+      <c r="B22" s="1">
         <v>21</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D22" s="30" t="s">
+      <c r="D22" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="5">
+      <c r="E22" s="1"/>
+      <c r="F22" s="2">
         <v>32214</v>
       </c>
-      <c r="G22" s="4"/>
-      <c r="H22" s="6">
+      <c r="G22" s="1"/>
+      <c r="H22" s="3">
         <v>1.3068650000088999</v>
       </c>
-      <c r="I22" s="6">
+      <c r="I22" s="3">
         <v>103.79029000003101</v>
       </c>
     </row>
-    <row r="23" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B23" s="1">
         <v>22</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="4"/>
-      <c r="F23" s="5">
+      <c r="E23" s="1"/>
+      <c r="F23" s="2">
         <v>37182</v>
       </c>
-      <c r="G23" s="4"/>
-      <c r="H23" s="6">
+      <c r="G23" s="1"/>
+      <c r="H23" s="3">
         <v>1.3113999999999899</v>
       </c>
-      <c r="I23" s="6">
+      <c r="I23" s="3">
         <v>103.77858999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B24" s="4">
+      <c r="B24" s="1">
         <v>23</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="E24" s="4"/>
-      <c r="F24" s="5">
+      <c r="E24" s="1"/>
+      <c r="F24" s="2">
         <v>32214</v>
       </c>
-      <c r="G24" s="4"/>
-      <c r="H24" s="6">
+      <c r="G24" s="1"/>
+      <c r="H24" s="3">
         <v>1.3151200000000001</v>
       </c>
-      <c r="I24" s="6">
+      <c r="I24" s="3">
         <v>103.76522</v>
       </c>
     </row>
-    <row r="25" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="4">
+      <c r="B25" s="1">
         <v>24</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E25" s="4"/>
-      <c r="F25" s="5">
+      <c r="E25" s="1"/>
+      <c r="F25" s="2">
         <v>32452</v>
       </c>
-      <c r="G25" s="4"/>
-      <c r="H25" s="6">
+      <c r="G25" s="1"/>
+      <c r="H25" s="3">
         <v>1.3331233333363299</v>
       </c>
-      <c r="I25" s="6">
+      <c r="I25" s="3">
         <v>103.742303333329</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="4">
+      <c r="B26" s="1">
         <v>25</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5">
+      <c r="E26" s="1"/>
+      <c r="F26" s="2">
         <v>32452</v>
       </c>
-      <c r="G26" s="4"/>
-      <c r="H26" s="6">
+      <c r="G26" s="1"/>
+      <c r="H26" s="3">
         <v>1.3424</v>
       </c>
-      <c r="I26" s="6">
+      <c r="I26" s="3">
         <v>103.73256000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="30" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="1">
         <v>26</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D27" s="30" t="s">
+      <c r="D27" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5">
+      <c r="E27" s="1"/>
+      <c r="F27" s="2">
         <v>32452</v>
       </c>
-      <c r="G27" s="4"/>
-      <c r="H27" s="6">
+      <c r="G27" s="1"/>
+      <c r="H27" s="3">
         <v>1.3442499999999999</v>
       </c>
-      <c r="I27" s="6">
+      <c r="I27" s="3">
         <v>103.72069</v>
       </c>
     </row>
-    <row r="28" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B28" s="4">
+      <c r="B28" s="1">
         <v>27</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5">
+      <c r="E28" s="1"/>
+      <c r="F28" s="2">
         <v>33060</v>
       </c>
-      <c r="G28" s="4"/>
-      <c r="H28" s="6">
+      <c r="G28" s="1"/>
+      <c r="H28" s="3">
         <v>1.3385100000000001</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="3">
         <v>103.70574000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30" t="s">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B29" s="4">
+      <c r="B29" s="1">
         <v>28</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5">
+      <c r="E29" s="1"/>
+      <c r="F29" s="2">
         <v>39872</v>
       </c>
-      <c r="G29" s="4"/>
-      <c r="H29" s="6">
+      <c r="G29" s="1"/>
+      <c r="H29" s="3">
         <v>1.33758</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="3">
         <v>103.69739</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="30" t="s">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B30" s="4">
+      <c r="B30" s="1">
         <v>29</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="30" t="s">
+      <c r="D30" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5">
+      <c r="E30" s="1"/>
+      <c r="F30" s="2">
         <v>39872</v>
       </c>
-      <c r="G30" s="4"/>
-      <c r="H30" s="6">
+      <c r="G30" s="1"/>
+      <c r="H30" s="3">
         <v>1.32772</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="3">
         <v>103.67818</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="30" t="s">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="4">
+      <c r="B31" s="1">
         <v>30</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="30" t="s">
+      <c r="D31" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5">
+      <c r="E31" s="1"/>
+      <c r="F31" s="2">
         <v>42904</v>
       </c>
-      <c r="G31" s="4"/>
-      <c r="H31" s="6">
+      <c r="G31" s="1"/>
+      <c r="H31" s="3">
         <v>1.3195699999999999</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="3">
         <v>103.66065</v>
       </c>
     </row>
-    <row r="32" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="30" t="s">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="4">
+      <c r="B32" s="1">
         <v>31</v>
       </c>
-      <c r="C32" s="4" t="s">
+      <c r="C32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D32" s="30" t="s">
+      <c r="D32" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="4"/>
-      <c r="F32" s="5">
+      <c r="E32" s="1"/>
+      <c r="F32" s="2">
         <v>42904</v>
       </c>
-      <c r="G32" s="4"/>
-      <c r="H32" s="6">
+      <c r="G32" s="1"/>
+      <c r="H32" s="3">
         <v>1.3211299999999999</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="3">
         <v>103.64895</v>
       </c>
     </row>
-    <row r="33" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="30" t="s">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B33" s="4">
+      <c r="B33" s="1">
         <v>32</v>
       </c>
-      <c r="C33" s="4" t="s">
+      <c r="C33" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="30" t="s">
+      <c r="D33" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="4"/>
-      <c r="F33" s="5">
+      <c r="E33" s="1"/>
+      <c r="F33" s="2">
         <v>42904</v>
       </c>
-      <c r="G33" s="4"/>
-      <c r="H33" s="6">
+      <c r="G33" s="1"/>
+      <c r="H33" s="3">
         <v>1.3300399999999999</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="3">
         <v>103.63959</v>
       </c>
     </row>
-    <row r="34" spans="1:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="30" t="s">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B34" s="4">
+      <c r="B34" s="1">
         <v>33</v>
       </c>
-      <c r="C34" s="4" t="s">
+      <c r="C34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="30" t="s">
+      <c r="D34" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E34" s="4"/>
-      <c r="F34" s="5">
+      <c r="E34" s="1"/>
+      <c r="F34" s="2">
         <v>42904</v>
       </c>
-      <c r="G34" s="4"/>
-      <c r="H34" s="6">
+      <c r="G34" s="1"/>
+      <c r="H34" s="3">
         <v>1.3397399999999999</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="3">
         <v>103.6366</v>
       </c>
     </row>
@@ -5081,61 +5024,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="20" customWidth="1"/>
+    <col min="1" max="1" width="43" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="38" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="19" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>496</v>
+      <c r="A2" s="9" t="s">
+        <v>494</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="D2" s="19" t="s">
+        <v>444</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="1"/>
@@ -5151,8 +5093,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
-        <v>496</v>
+      <c r="A3" s="9" t="s">
+        <v>494</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -5160,7 +5102,7 @@
       <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="1"/>
@@ -5176,8 +5118,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
-        <v>496</v>
+      <c r="A4" s="9" t="s">
+        <v>494</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -5185,7 +5127,7 @@
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="1"/>
@@ -5213,506 +5155,488 @@
   <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="20" customWidth="1"/>
+    <col min="1" max="1" width="43" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="38" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="19" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="13">
+      <c r="E2" s="1"/>
+      <c r="F2" s="5">
         <v>37792</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="6">
+      <c r="G2" s="1"/>
+      <c r="H2" s="3">
         <v>1.2653450000191999</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>103.82249499999401</v>
       </c>
-      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="42" t="s">
-        <v>430</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="24" t="s">
+        <v>512</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5">
+      <c r="E4" s="1"/>
+      <c r="F4" s="2">
         <v>37792</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6">
+      <c r="G4" s="1"/>
+      <c r="H4" s="3">
         <v>1.28098000001501</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>103.83929000008099</v>
       </c>
-      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="9" t="s">
         <v>128</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5">
+      <c r="E5" s="1"/>
+      <c r="F5" s="2">
         <v>37792</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6">
+      <c r="G5" s="1"/>
+      <c r="H5" s="3">
         <v>1.2845600000131301</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>103.84364999996301</v>
       </c>
-      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="9" t="s">
         <v>130</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5">
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
         <v>37792</v>
       </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6">
+      <c r="G6" s="1"/>
+      <c r="H6" s="3">
         <v>1.2887299999999999</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>103.84661</v>
       </c>
-      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5">
+      <c r="E7" s="1"/>
+      <c r="F7" s="2">
         <v>37792</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="6">
+      <c r="G7" s="1"/>
+      <c r="H7" s="3">
         <v>1.29922666669347</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>103.845823333409</v>
       </c>
-      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5">
+      <c r="E8" s="1"/>
+      <c r="F8" s="2">
         <v>37792</v>
       </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6">
+      <c r="G8" s="1"/>
+      <c r="H8" s="3">
         <v>1.3070350000183699</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>103.84944499996</v>
       </c>
-      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5">
+      <c r="E9" s="1"/>
+      <c r="F9" s="2">
         <v>37792</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6">
+      <c r="G9" s="1"/>
+      <c r="H9" s="3">
         <v>1.3125800000000001</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>103.85420999999999</v>
       </c>
-      <c r="J9" s="7"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5">
+      <c r="E10" s="1"/>
+      <c r="F10" s="2">
         <v>37792</v>
       </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="6">
+      <c r="G10" s="1"/>
+      <c r="H10" s="3">
         <v>1.3199000000000001</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>103.86172000000001</v>
       </c>
-      <c r="J10" s="7"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D11" s="30" t="s">
+      <c r="D11" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="13">
+      <c r="E11" s="1"/>
+      <c r="F11" s="5">
         <v>37792</v>
       </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="6">
+      <c r="G11" s="1"/>
+      <c r="H11" s="3">
         <v>1.33125</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="3">
         <v>103.86906</v>
       </c>
-      <c r="J11" s="7"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="1">
         <v>11</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="42">
+      <c r="E12" s="1"/>
+      <c r="F12" s="24">
         <v>40714</v>
       </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="6">
+      <c r="G12" s="1"/>
+      <c r="H12" s="3">
         <v>1.33897</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="3">
         <v>103.87071</v>
       </c>
-      <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B13" s="4">
+      <c r="B13" s="1">
         <v>12</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="D13" s="30" t="s">
+      <c r="D13" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="5">
+      <c r="E13" s="1"/>
+      <c r="F13" s="2">
         <v>37792</v>
       </c>
-      <c r="G13" s="4"/>
-      <c r="H13" s="6">
+      <c r="G13" s="1"/>
+      <c r="H13" s="3">
         <v>1.3501500000855</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="3">
         <v>103.872915000161</v>
       </c>
-      <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="1">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="D14" s="30" t="s">
+      <c r="D14" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="5">
+      <c r="E14" s="1"/>
+      <c r="F14" s="2">
         <v>37792</v>
       </c>
-      <c r="G14" s="4"/>
-      <c r="H14" s="6">
+      <c r="G14" s="1"/>
+      <c r="H14" s="3">
         <v>1.3601099999999999</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="3">
         <v>103.88500999999999</v>
       </c>
-      <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B15" s="4">
+      <c r="B15" s="1">
         <v>14</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="D15" s="30" t="s">
+      <c r="D15" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="13">
+      <c r="E15" s="1"/>
+      <c r="F15" s="5">
         <v>37792</v>
       </c>
-      <c r="G15" s="4"/>
-      <c r="H15" s="6">
+      <c r="G15" s="1"/>
+      <c r="H15" s="3">
         <v>1.3713899999999899</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="3">
         <v>103.89257000000001</v>
       </c>
-      <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B16" s="1">
         <v>15</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D16" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="42">
+      <c r="E16" s="1"/>
+      <c r="F16" s="24">
         <v>38732</v>
       </c>
-      <c r="G16" s="4"/>
-      <c r="H16" s="6">
+      <c r="G16" s="1"/>
+      <c r="H16" s="3">
         <v>1.3824299999999901</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="3">
         <v>103.89302000000001</v>
       </c>
-      <c r="J16" s="7"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="30" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B17" s="4">
+      <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="30" t="s">
+      <c r="D17" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="5">
+      <c r="E17" s="1"/>
+      <c r="F17" s="2">
         <v>37792</v>
       </c>
-      <c r="G17" s="4"/>
-      <c r="H17" s="6">
+      <c r="G17" s="1"/>
+      <c r="H17" s="3">
         <v>1.3916450000000899</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="3">
         <v>103.895394999999</v>
       </c>
-      <c r="J17" s="7"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="30" t="s">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B18" s="4">
+      <c r="B18" s="1">
         <v>17</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D18" s="30" t="s">
+      <c r="D18" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E18" s="4"/>
-      <c r="F18" s="13">
+      <c r="E18" s="1"/>
+      <c r="F18" s="5">
         <v>37792</v>
       </c>
-      <c r="G18" s="4"/>
-      <c r="H18" s="6">
+      <c r="G18" s="1"/>
+      <c r="H18" s="3">
         <v>1.40524500000009</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="3">
         <v>103.902369999999</v>
       </c>
-      <c r="J18" s="7"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="30" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B19" s="1">
         <v>18</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>494</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>495</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>430</v>
+      <c r="C19" s="4" t="s">
+        <v>492</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="F19" s="24" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -5729,60 +5653,59 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="A18"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="20" customWidth="1"/>
+    <col min="1" max="1" width="43" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="38" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="19" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B2" s="1">
@@ -5791,11 +5714,11 @@
       <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="9" t="s">
         <v>51</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="39">
+      <c r="F2" s="5">
         <v>32452</v>
       </c>
       <c r="G2" s="1"/>
@@ -5807,7 +5730,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B3" s="1">
@@ -5816,7 +5739,7 @@
       <c r="C3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="9" t="s">
         <v>73</v>
       </c>
       <c r="E3" s="1"/>
@@ -5832,7 +5755,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B4" s="1">
@@ -5841,11 +5764,11 @@
       <c r="C4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="9" t="s">
         <v>75</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="39">
+      <c r="F4" s="5">
         <v>32942</v>
       </c>
       <c r="G4" s="1"/>
@@ -5857,28 +5780,28 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>492</v>
-      </c>
-      <c r="D5" s="19" t="s">
-        <v>493</v>
+        <v>490</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>491</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="41" t="s">
-        <v>430</v>
+      <c r="F5" s="24" t="s">
+        <v>512</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="1">
@@ -5887,7 +5810,7 @@
       <c r="C6" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E6" s="1"/>
@@ -5903,7 +5826,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B7" s="1">
@@ -5912,11 +5835,11 @@
       <c r="C7" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="9" t="s">
         <v>79</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="39">
+      <c r="F7" s="5">
         <v>32942</v>
       </c>
       <c r="G7" s="1"/>
@@ -5928,7 +5851,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="1">
@@ -5937,19 +5860,19 @@
       <c r="C8" s="1" t="s">
         <v>372</v>
       </c>
-      <c r="D8" s="19" t="s">
-        <v>432</v>
+      <c r="D8" s="9" t="s">
+        <v>431</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="41" t="s">
-        <v>430</v>
+      <c r="F8" s="24" t="s">
+        <v>512</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B9" s="1">
@@ -5958,7 +5881,7 @@
       <c r="C9" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="9" t="s">
         <v>81</v>
       </c>
       <c r="E9" s="1"/>
@@ -5974,7 +5897,7 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B10" s="1">
@@ -5983,7 +5906,7 @@
       <c r="C10" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="9" t="s">
         <v>83</v>
       </c>
       <c r="E10" s="1"/>
@@ -5999,7 +5922,7 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B11" s="1">
@@ -6008,7 +5931,7 @@
       <c r="C11" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="9" t="s">
         <v>85</v>
       </c>
       <c r="E11" s="1"/>
@@ -6024,7 +5947,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B12" s="1">
@@ -6033,7 +5956,7 @@
       <c r="C12" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="9" t="s">
         <v>87</v>
       </c>
       <c r="E12" s="1"/>
@@ -6049,7 +5972,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B13" s="1">
@@ -6058,11 +5981,11 @@
       <c r="C13" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="9" t="s">
         <v>89</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13" s="39">
+      <c r="F13" s="5">
         <v>35105</v>
       </c>
       <c r="G13" s="1"/>
@@ -6074,7 +5997,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="1">
@@ -6083,11 +6006,11 @@
       <c r="C14" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="9" t="s">
         <v>91</v>
       </c>
       <c r="E14" s="1"/>
-      <c r="F14" s="41">
+      <c r="F14" s="24">
         <v>43771</v>
       </c>
       <c r="G14" s="1"/>
@@ -6099,7 +6022,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B15" s="1">
@@ -6108,7 +6031,7 @@
       <c r="C15" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="9" t="s">
         <v>93</v>
       </c>
       <c r="E15" s="1"/>
@@ -6124,7 +6047,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B16" s="1">
@@ -6133,11 +6056,11 @@
       <c r="C16" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="9" t="s">
         <v>95</v>
       </c>
       <c r="E16" s="1"/>
-      <c r="F16" s="39">
+      <c r="F16" s="5">
         <v>32497</v>
       </c>
       <c r="G16" s="1"/>
@@ -6149,7 +6072,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+      <c r="A17" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B17" s="1">
@@ -6158,7 +6081,7 @@
       <c r="C17" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="9" t="s">
         <v>97</v>
       </c>
       <c r="E17" s="1"/>
@@ -6174,7 +6097,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B18" s="1">
@@ -6183,7 +6106,7 @@
       <c r="C18" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="9" t="s">
         <v>99</v>
       </c>
       <c r="E18" s="1"/>
@@ -6199,7 +6122,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+      <c r="A19" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B19" s="1">
@@ -6208,7 +6131,7 @@
       <c r="C19" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E19" s="1"/>
@@ -6224,7 +6147,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+      <c r="A20" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B20" s="1">
@@ -6233,7 +6156,7 @@
       <c r="C20" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="9" t="s">
         <v>103</v>
       </c>
       <c r="E20" s="1"/>
@@ -6249,7 +6172,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="A21" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B21" s="1">
@@ -6258,11 +6181,11 @@
       <c r="C21" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="9" t="s">
         <v>105</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="39">
+      <c r="F21" s="5">
         <v>32088</v>
       </c>
       <c r="G21" s="1"/>
@@ -6274,7 +6197,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B22" s="1">
@@ -6283,7 +6206,7 @@
       <c r="C22" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="9" t="s">
         <v>107</v>
       </c>
       <c r="E22" s="1"/>
@@ -6299,7 +6222,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+      <c r="A23" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B23" s="1">
@@ -6308,7 +6231,7 @@
       <c r="C23" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E23" s="1"/>
@@ -6324,7 +6247,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+      <c r="A24" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B24" s="1">
@@ -6333,7 +6256,7 @@
       <c r="C24" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="9" t="s">
         <v>111</v>
       </c>
       <c r="E24" s="1"/>
@@ -6349,7 +6272,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+      <c r="A25" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B25" s="1">
@@ -6358,7 +6281,7 @@
       <c r="C25" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="9" t="s">
         <v>113</v>
       </c>
       <c r="E25" s="1"/>
@@ -6374,7 +6297,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+      <c r="A26" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B26" s="1">
@@ -6383,7 +6306,7 @@
       <c r="C26" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="9" t="s">
         <v>115</v>
       </c>
       <c r="E26" s="1"/>
@@ -6399,7 +6322,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+      <c r="A27" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B27" s="1">
@@ -6408,11 +6331,11 @@
       <c r="C27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="9" t="s">
         <v>30</v>
       </c>
       <c r="E27" s="1"/>
-      <c r="F27" s="40">
+      <c r="F27" s="2">
         <v>32123</v>
       </c>
       <c r="G27" s="1"/>
@@ -6424,7 +6347,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B28" s="1">
@@ -6433,11 +6356,11 @@
       <c r="C28" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="9" t="s">
         <v>118</v>
       </c>
       <c r="E28" s="1"/>
-      <c r="F28" s="39">
+      <c r="F28" s="5">
         <v>32123</v>
       </c>
       <c r="G28" s="1"/>
@@ -6449,7 +6372,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+      <c r="A29" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B29" s="1">
@@ -6458,11 +6381,11 @@
       <c r="C29" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="9" t="s">
         <v>120</v>
       </c>
       <c r="E29" s="1"/>
-      <c r="F29" s="39">
+      <c r="F29" s="5">
         <v>32816</v>
       </c>
       <c r="G29" s="1"/>
@@ -6474,7 +6397,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+      <c r="A30" s="9" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="1">
@@ -6483,11 +6406,11 @@
       <c r="C30" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="9" t="s">
         <v>122</v>
       </c>
       <c r="E30" s="1"/>
-      <c r="F30" s="41">
+      <c r="F30" s="24">
         <v>41966</v>
       </c>
       <c r="G30" s="1"/>
@@ -6514,770 +6437,764 @@
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="4" topLeftCell="E1" activePane="topRight" state="frozen"/>
       <selection activeCell="A36" sqref="A36"/>
-      <selection pane="topRight" activeCell="A13" sqref="A13"/>
+      <selection pane="topRight" activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="20" customWidth="1"/>
+    <col min="1" max="1" width="43" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="38" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="19" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="21" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D2" s="21" t="s">
+      <c r="D2" s="9" t="s">
         <v>269</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2">
         <v>43861</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11">
+      <c r="G2" s="1"/>
+      <c r="H2" s="3">
         <v>1.44834999999999</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="3">
         <v>103.78576</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="10">
+      <c r="E3" s="1"/>
+      <c r="F3" s="2">
         <v>43861</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="11">
+      <c r="G3" s="1"/>
+      <c r="H3" s="3">
         <v>1.4368639999999999</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="3">
         <v>103.786198</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B4" s="9">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="9" t="s">
         <v>272</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="13">
+      <c r="E4" s="1"/>
+      <c r="F4" s="5">
         <v>43861</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="11">
+      <c r="G4" s="1"/>
+      <c r="H4" s="3">
         <v>1.4273100000000001</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="3">
         <v>103.7938</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="21" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B5" s="9">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="10">
+      <c r="E5" s="1"/>
+      <c r="F5" s="2">
         <v>44436</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="11">
+      <c r="G5" s="1"/>
+      <c r="H5" s="3">
         <v>1.39818</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="3">
         <v>103.81805</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D6" s="21" t="s">
+      <c r="D6" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="E6" s="9"/>
-      <c r="F6" s="10">
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
         <v>44436</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="11">
+      <c r="G6" s="1"/>
+      <c r="H6" s="3">
         <v>1.3849100000000001</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="3">
         <v>103.83663</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B7" s="9">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D7" s="21" t="s">
+      <c r="D7" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="E7" s="9"/>
-      <c r="F7" s="10">
+      <c r="E7" s="1"/>
+      <c r="F7" s="2">
         <v>44436</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="11">
+      <c r="G7" s="1"/>
+      <c r="H7" s="3">
         <v>1.37245999999999</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="3">
         <v>103.83696</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="21" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D8" s="21" t="s">
+      <c r="D8" s="9" t="s">
         <v>280</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="10">
+      <c r="E8" s="1"/>
+      <c r="F8" s="2">
         <v>44436</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11">
+      <c r="G8" s="1"/>
+      <c r="H8" s="3">
         <v>1.36374</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="3">
         <v>103.83344</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B9" s="9">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="D9" s="21" t="s">
+      <c r="D9" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="E9" s="9"/>
-      <c r="F9" s="10">
+      <c r="E9" s="1"/>
+      <c r="F9" s="2">
         <v>44436</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="11">
+      <c r="G9" s="1"/>
+      <c r="H9" s="3">
         <v>1.3546</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="3">
         <v>103.83269</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D10" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="13">
+      <c r="E10" s="1"/>
+      <c r="F10" s="5">
         <v>44436</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="11">
+      <c r="G10" s="1"/>
+      <c r="H10" s="3">
         <v>1.3374300000118</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="3">
         <v>103.83994000000899</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="21" t="s">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B11" s="9">
+      <c r="B11" s="1">
         <v>10</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="D11" s="21" t="s">
+      <c r="D11" s="9" t="s">
+        <v>432</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2">
+        <v>44878</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3">
+        <v>1.31977000001037</v>
+      </c>
+      <c r="I12" s="3">
+        <v>103.825764999976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2">
+        <v>44878</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3">
+        <v>1.3069500000000001</v>
+      </c>
+      <c r="I13" s="3">
+        <v>103.81883000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>413</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2">
+        <v>44878</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3">
+        <v>1.3025500000000001</v>
+      </c>
+      <c r="I14" s="3">
+        <v>103.82396</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2">
+        <v>44878</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3">
+        <v>1.3030650000266599</v>
+      </c>
+      <c r="I15" s="3">
+        <v>103.83182499997901</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>414</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2">
+        <v>44878</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3">
+        <v>1.2947900000000001</v>
+      </c>
+      <c r="I16" s="3">
+        <v>103.83362</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>415</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2">
+        <v>44878</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3">
+        <v>1.28806</v>
+      </c>
+      <c r="I17" s="3">
+        <v>103.83368</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2">
+        <v>44878</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3">
+        <v>1.28098000001501</v>
+      </c>
+      <c r="I18" s="3">
+        <v>103.83929000008099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2">
+        <v>44878</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3">
+        <v>1.2805599999999899</v>
+      </c>
+      <c r="I19" s="3">
+        <v>103.84390999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2">
+        <v>44878</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="3">
+        <v>1.27779</v>
+      </c>
+      <c r="I20" s="3">
+        <v>103.85063</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="5">
+        <v>44878</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="3">
+        <v>1.2752500000492499</v>
+      </c>
+      <c r="I21" s="3">
+        <v>103.855193333446</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>267</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>433</v>
       </c>
-      <c r="E11" s="9"/>
-      <c r="F11" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-    </row>
-    <row r="12" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="2" t="s">
+        <v>512</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="9">
-        <v>11</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>447</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12" s="9"/>
-      <c r="F12" s="10">
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>410</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="5">
         <v>44878</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="11">
-        <v>1.31977000001037</v>
-      </c>
-      <c r="I12" s="11">
-        <v>103.825764999976</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21" t="s">
+      <c r="G23" s="1"/>
+      <c r="H23" s="3">
+        <v>1.2792300000000001</v>
+      </c>
+      <c r="I23" s="3">
+        <v>103.86803</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B13" s="9">
-        <v>12</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>402</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>412</v>
-      </c>
-      <c r="E13" s="9"/>
-      <c r="F13" s="10">
-        <v>44878</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="11">
-        <v>1.3069500000000001</v>
-      </c>
-      <c r="I13" s="11">
-        <v>103.81883000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B14" s="9">
-        <v>13</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>403</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>413</v>
-      </c>
-      <c r="E14" s="9"/>
-      <c r="F14" s="10">
-        <v>44878</v>
-      </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="11">
-        <v>1.3025500000000001</v>
-      </c>
-      <c r="I14" s="11">
-        <v>103.82396</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>475</v>
+      </c>
+      <c r="F25" s="7">
+        <v>45466</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B15" s="9">
-        <v>14</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>448</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="9"/>
-      <c r="F15" s="10">
-        <v>44878</v>
-      </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="11">
-        <v>1.3030650000266599</v>
-      </c>
-      <c r="I15" s="11">
-        <v>103.83182499997901</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="21" t="s">
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>474</v>
+      </c>
+      <c r="F26" s="7">
+        <v>45466</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B16" s="9">
-        <v>15</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>404</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>414</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10">
-        <v>44878</v>
-      </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="11">
-        <v>1.2947900000000001</v>
-      </c>
-      <c r="I16" s="11">
-        <v>103.83362</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>476</v>
+      </c>
+      <c r="F27" s="7">
+        <v>45466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B17" s="9">
-        <v>16</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>405</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>415</v>
-      </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="10">
-        <v>44878</v>
-      </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="11">
-        <v>1.28806</v>
-      </c>
-      <c r="I17" s="11">
-        <v>103.83368</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21" t="s">
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="F28" s="7">
+        <v>45466</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B18" s="9">
-        <v>17</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>449</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="10">
-        <v>44878</v>
-      </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="11">
-        <v>1.28098000001501</v>
-      </c>
-      <c r="I18" s="11">
-        <v>103.83929000008099</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="F29" s="7">
+        <v>45466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B19" s="9">
-        <v>18</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>406</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>416</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="10">
-        <v>44878</v>
-      </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="11">
-        <v>1.2805599999999899</v>
-      </c>
-      <c r="I19" s="11">
-        <v>103.84390999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="F30" s="7">
+        <v>45466</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B20" s="9">
-        <v>19</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>407</v>
-      </c>
-      <c r="D20" s="21" t="s">
-        <v>417</v>
-      </c>
-      <c r="E20" s="9"/>
-      <c r="F20" s="10">
-        <v>44878</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="11">
-        <v>1.27779</v>
-      </c>
-      <c r="I20" s="11">
-        <v>103.85063</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>480</v>
+      </c>
+      <c r="F31" s="7">
+        <v>45466</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B21" s="9">
-        <v>20</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>450</v>
-      </c>
-      <c r="D21" s="21" t="s">
-        <v>120</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="13">
-        <v>44878</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="11">
-        <v>1.2752500000492499</v>
-      </c>
-      <c r="I21" s="11">
-        <v>103.855193333446</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>481</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="B22" s="9">
-        <v>21</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>408</v>
-      </c>
-      <c r="D22" s="21" t="s">
-        <v>434</v>
-      </c>
-      <c r="E22" s="9"/>
-      <c r="F22" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-    </row>
-    <row r="23" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B23" s="9">
-        <v>22</v>
-      </c>
-      <c r="C23" s="9" t="s">
-        <v>409</v>
-      </c>
-      <c r="D23" s="21" t="s">
-        <v>410</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="13">
-        <v>44878</v>
-      </c>
-      <c r="G23" s="9"/>
-      <c r="H23" s="11">
-        <v>1.2792300000000001</v>
-      </c>
-      <c r="I23" s="11">
-        <v>103.86803</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B24" s="9">
-        <v>23</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>465</v>
-      </c>
-      <c r="D24" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B25" s="9">
-        <v>24</v>
-      </c>
-      <c r="C25" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="D25" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="F25" s="16">
-        <v>45466</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B26" s="9">
-        <v>25</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>467</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>475</v>
-      </c>
-      <c r="F26" s="16">
-        <v>45466</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B27" s="9">
-        <v>26</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>468</v>
-      </c>
-      <c r="D27" s="20" t="s">
-        <v>477</v>
-      </c>
-      <c r="F27" s="16">
-        <v>45466</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B28" s="9">
-        <v>27</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>469</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="F28" s="16">
-        <v>45466</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B29" s="9">
-        <v>28</v>
-      </c>
-      <c r="C29" s="9" t="s">
-        <v>470</v>
-      </c>
-      <c r="D29" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="F29" s="16">
-        <v>45466</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B30" s="9">
-        <v>29</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>471</v>
-      </c>
-      <c r="D30" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="F30" s="16">
-        <v>45466</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B31" s="9">
-        <v>30</v>
-      </c>
-      <c r="C31" s="9" t="s">
-        <v>472</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>481</v>
-      </c>
-      <c r="F31" s="16">
-        <v>45466</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B32" s="9">
-        <v>31</v>
-      </c>
-      <c r="C32" s="9" t="s">
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>482</v>
-      </c>
-      <c r="F32" s="16" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="B33" s="9">
-        <v>32</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>474</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>454</v>
-      </c>
-      <c r="F33" s="16" t="s">
-        <v>430</v>
+      <c r="D33" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -7290,8 +7207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ACE361-94CD-4EC6-9D43-7A3F6D5DC51A}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7305,27 +7222,27 @@
     <col min="7" max="7" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
-        <v>436</v>
-      </c>
-      <c r="B1" s="23" t="s">
-        <v>486</v>
-      </c>
-      <c r="C1" s="23" t="s">
+    <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="C1" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="11" t="s">
         <v>428</v>
       </c>
-      <c r="E1" s="23" t="s">
-        <v>446</v>
-      </c>
-      <c r="F1" s="23" t="s">
-        <v>484</v>
-      </c>
-      <c r="G1" s="23" t="s">
-        <v>438</v>
+      <c r="E1" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>437</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7345,7 +7262,7 @@
         <v>389</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7356,16 +7273,16 @@
         <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F3" t="s">
         <v>390</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -7376,16 +7293,16 @@
         <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E4" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F4" t="s">
         <v>390</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -7405,7 +7322,7 @@
         <v>389</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -7425,7 +7342,7 @@
         <v>389</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7696,16 +7613,16 @@
         <v>210</v>
       </c>
       <c r="D20" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E20" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="F20" t="s">
         <v>390</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -7725,7 +7642,7 @@
         <v>389</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -7745,7 +7662,7 @@
         <v>389</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -7765,7 +7682,7 @@
         <v>390</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -7785,7 +7702,7 @@
         <v>389</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7805,7 +7722,7 @@
         <v>389</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -7825,7 +7742,7 @@
         <v>389</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7845,7 +7762,7 @@
         <v>389</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -7865,7 +7782,7 @@
         <v>389</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -7885,7 +7802,7 @@
         <v>389</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -7905,7 +7822,7 @@
         <v>390</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -7925,7 +7842,7 @@
         <v>390</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -7945,7 +7862,7 @@
         <v>389</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -7965,7 +7882,7 @@
         <v>389</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -7985,7 +7902,7 @@
         <v>389</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -8005,7 +7922,7 @@
         <v>389</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -8025,7 +7942,7 @@
         <v>389</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -8039,13 +7956,13 @@
         <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F37" t="s">
         <v>389</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -8065,7 +7982,7 @@
         <v>389</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -8085,7 +8002,7 @@
         <v>389</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -8096,7 +8013,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E40" t="s">
         <v>364</v>
@@ -8105,7 +8022,7 @@
         <v>389</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -8125,7 +8042,7 @@
         <v>389</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -8139,13 +8056,13 @@
         <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F42" t="s">
         <v>389</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -8165,7 +8082,7 @@
         <v>389</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -8185,7 +8102,7 @@
         <v>389</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -8205,7 +8122,7 @@
         <v>389</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -8225,7 +8142,7 @@
         <v>389</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -8245,7 +8162,7 @@
         <v>389</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -8265,7 +8182,7 @@
         <v>389</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -8285,7 +8202,7 @@
         <v>389</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -8305,7 +8222,7 @@
         <v>389</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -8325,7 +8242,7 @@
         <v>389</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -8345,7 +8262,7 @@
         <v>389</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -8365,7 +8282,7 @@
         <v>390</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -8385,7 +8302,7 @@
         <v>389</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -8405,7 +8322,7 @@
         <v>389</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -8425,7 +8342,7 @@
         <v>389</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -8445,7 +8362,7 @@
         <v>389</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -8465,7 +8382,7 @@
         <v>389</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -8516,7 +8433,7 @@
         <v>225</v>
       </c>
       <c r="D61" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E61" t="s">
         <v>400</v>
@@ -8536,7 +8453,7 @@
         <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E62" t="s">
         <v>379</v>
@@ -8556,10 +8473,10 @@
         <v>35</v>
       </c>
       <c r="D63" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E63" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F63" t="s">
         <v>389</v>
@@ -8576,7 +8493,7 @@
         <v>120</v>
       </c>
       <c r="D64" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E64" t="s">
         <v>382</v>
@@ -8600,58 +8517,57 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="20" customWidth="1"/>
+    <col min="1" max="1" width="43" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="37" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:10" s="22" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="31" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="31" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="31" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="31" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="32" t="s">
+      <c r="H1" s="18" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="31" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="33" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="33" t="s">
+      <c r="I1" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="16" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="9" t="s">
         <v>284</v>
       </c>
       <c r="B2" s="1">
@@ -8660,7 +8576,7 @@
       <c r="C2" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="9" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="1"/>
@@ -8676,7 +8592,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="9" t="s">
         <v>284</v>
       </c>
       <c r="B3" s="1">
@@ -8685,7 +8601,7 @@
       <c r="C3" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="9" t="s">
         <v>287</v>
       </c>
       <c r="E3" s="1"/>
@@ -8701,7 +8617,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="9" t="s">
         <v>284</v>
       </c>
       <c r="B4" s="1">
@@ -8710,7 +8626,7 @@
       <c r="C4" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="9" t="s">
         <v>289</v>
       </c>
       <c r="E4" s="1"/>
@@ -8726,7 +8642,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="9" t="s">
         <v>284</v>
       </c>
       <c r="B5" s="1">
@@ -8735,7 +8651,7 @@
       <c r="C5" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="9" t="s">
         <v>291</v>
       </c>
       <c r="E5" s="1"/>
@@ -8751,7 +8667,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="9" t="s">
         <v>284</v>
       </c>
       <c r="B6" s="1">
@@ -8760,7 +8676,7 @@
       <c r="C6" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="9" t="s">
         <v>293</v>
       </c>
       <c r="E6" s="1"/>
@@ -8776,16 +8692,16 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="9" t="s">
         <v>284</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D7" s="19" t="s">
+        <v>440</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E7" s="1"/>
@@ -8813,278 +8729,273 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="20" customWidth="1"/>
+    <col min="1" max="1" width="43" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="16" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="7" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="38" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="20" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="35" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="19" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>441</v>
-      </c>
-      <c r="D2" s="30" t="s">
+      <c r="C2" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="2">
         <v>36470</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6">
+      <c r="G2" s="2"/>
+      <c r="H2" s="3">
         <v>1.3782300000590499</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>103.76256000006801</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="E3" s="4"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="2">
         <v>36470</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6">
+      <c r="G3" s="2"/>
+      <c r="H3" s="3">
         <v>1.3777699999999999</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>103.76663000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>296</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="2">
         <v>36470</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6">
+      <c r="G4" s="2"/>
+      <c r="H4" s="3">
         <v>1.3761699999999999</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>103.77126</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>298</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="9" t="s">
         <v>299</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="2">
         <v>36470</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6">
+      <c r="G5" s="2"/>
+      <c r="H5" s="3">
         <v>1.3800600000000001</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>103.77264</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="9" t="s">
         <v>301</v>
       </c>
-      <c r="E6" s="4"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="2">
         <v>36470</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6">
+      <c r="G6" s="2"/>
+      <c r="H6" s="3">
         <v>1.3845399999999899</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>103.77079999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>302</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="E7" s="4"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="2">
         <v>36470</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6">
+      <c r="G7" s="2"/>
+      <c r="H7" s="3">
         <v>1.3877900000000001</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>103.76958999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>304</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="E8" s="4"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="2">
         <v>36470</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6">
+      <c r="G8" s="2"/>
+      <c r="H8" s="3">
         <v>1.3866700000000001</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>103.76451</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>306</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="9" t="s">
         <v>307</v>
       </c>
-      <c r="E9" s="4"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="2">
         <v>36470</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6">
+      <c r="G9" s="2"/>
+      <c r="H9" s="3">
         <v>1.3826799999999999</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>103.76237999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>421</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>8</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D10" s="10" t="s">
         <v>456</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>457</v>
-      </c>
-      <c r="E10"/>
       <c r="F10" s="2">
         <v>36470</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="7">
         <v>43478</v>
       </c>
-      <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
@@ -9100,262 +9011,253 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="20" customWidth="1"/>
+    <col min="1" max="1" width="43" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="38" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="19" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="6">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2">
+        <v>38381</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3">
         <v>1.40524500000009</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>103.902369999999</v>
       </c>
-      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>335</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="9" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="6">
+      <c r="E3" s="1"/>
+      <c r="F3" s="2">
+        <v>38381</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3">
         <v>1.39947</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>103.90586</v>
       </c>
-      <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="9" t="s">
         <v>338</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="6">
+      <c r="E4" s="1"/>
+      <c r="F4" s="2">
+        <v>38381</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3">
         <v>1.39699</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>103.90886999999999</v>
       </c>
-      <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+      <c r="A5" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="6">
+      <c r="E5" s="1"/>
+      <c r="F5" s="2">
+        <v>38381</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3">
         <v>1.3938900000000001</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>103.91262999999999</v>
       </c>
-      <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>341</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="6">
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
+        <v>38381</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3">
         <v>1.39454999999999</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>103.91611</v>
       </c>
-      <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="9" t="s">
         <v>344</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="6">
+      <c r="E7" s="1"/>
+      <c r="F7" s="2">
+        <v>38381</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3">
         <v>1.39960999999999</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>103.91643999999999</v>
       </c>
-      <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="9" t="s">
         <v>346</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="6">
+      <c r="E8" s="1"/>
+      <c r="F8" s="2">
+        <v>39248</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3">
         <v>1.40232</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>103.91267999999999</v>
       </c>
-      <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="9" t="s">
         <v>424</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="9" t="s">
         <v>348</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5" t="s">
-        <v>435</v>
-      </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="6">
+      <c r="E9" s="1"/>
+      <c r="F9" s="2">
+        <v>40714</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3">
         <v>1.4052800000000001</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>103.90855999999999</v>
       </c>
-      <c r="J9" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9370,57 +9272,56 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="20" customWidth="1"/>
+    <col min="1" max="1" width="43" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="38" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="19" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>425</v>
       </c>
       <c r="B2" s="1">
@@ -9429,12 +9330,12 @@
       <c r="C2" s="1" t="s">
         <v>349</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="9" t="s">
         <v>153</v>
       </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="2" t="s">
-        <v>435</v>
+      <c r="F2" s="2">
+        <v>38381</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="3">
@@ -9443,10 +9344,9 @@
       <c r="I2" s="3">
         <v>103.902369999999</v>
       </c>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>425</v>
       </c>
       <c r="B3" s="1">
@@ -9455,12 +9355,12 @@
       <c r="C3" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="9" t="s">
         <v>351</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="F3" s="2" t="s">
-        <v>435</v>
+      <c r="F3" s="2">
+        <v>42429</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="3">
@@ -9469,10 +9369,9 @@
       <c r="I3" s="3">
         <v>103.9049</v>
       </c>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>425</v>
       </c>
       <c r="B4" s="1">
@@ -9481,20 +9380,19 @@
       <c r="C4" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="9" t="s">
         <v>353</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2" t="s">
-        <v>430</v>
+        <v>512</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4"/>
-    </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>425</v>
       </c>
       <c r="B5" s="1">
@@ -9503,12 +9401,12 @@
       <c r="C5" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="9" t="s">
         <v>355</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="2" t="s">
-        <v>435</v>
+      <c r="F5" s="2">
+        <v>42733</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="3">
@@ -9517,10 +9415,9 @@
       <c r="I5" s="3">
         <v>103.90664</v>
       </c>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>425</v>
       </c>
       <c r="B6" s="1">
@@ -9529,12 +9426,12 @@
       <c r="C6" s="1" t="s">
         <v>356</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="9" t="s">
         <v>357</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="F6" s="2" t="s">
-        <v>435</v>
+      <c r="F6" s="2">
+        <v>42825</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="3">
@@ -9543,10 +9440,9 @@
       <c r="I6" s="3">
         <v>103.90215999999999</v>
       </c>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>425</v>
       </c>
       <c r="B7" s="1">
@@ -9555,12 +9451,12 @@
       <c r="C7" s="1" t="s">
         <v>358</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="9" t="s">
         <v>359</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="F7" s="2" t="s">
-        <v>435</v>
+      <c r="F7" s="2">
+        <v>41819</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="3">
@@ -9569,10 +9465,9 @@
       <c r="I7" s="3">
         <v>103.90036000000001</v>
       </c>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>425</v>
       </c>
       <c r="B8" s="1">
@@ -9581,12 +9476,12 @@
       <c r="C8" s="1" t="s">
         <v>360</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="9" t="s">
         <v>361</v>
       </c>
       <c r="E8" s="1"/>
-      <c r="F8" s="2" t="s">
-        <v>435</v>
+      <c r="F8" s="2">
+        <v>41819</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="3">
@@ -9595,10 +9490,9 @@
       <c r="I8" s="3">
         <v>103.89859</v>
       </c>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>425</v>
       </c>
       <c r="B9" s="1">
@@ -9607,12 +9501,12 @@
       <c r="C9" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="9" t="s">
         <v>363</v>
       </c>
       <c r="E9" s="1"/>
-      <c r="F9" s="2" t="s">
-        <v>435</v>
+      <c r="F9" s="2">
+        <v>41819</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9" s="3">
@@ -9621,7 +9515,6 @@
       <c r="I9" s="3">
         <v>103.89727000000001</v>
       </c>
-      <c r="J9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9641,61 +9534,60 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="20" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" style="29" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="20" customWidth="1"/>
+    <col min="1" max="1" width="43" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" style="29" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="38" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="19" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="9" t="s">
         <v>151</v>
       </c>
       <c r="E2" s="1"/>
@@ -9711,16 +9603,16 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="9" t="s">
         <v>326</v>
       </c>
       <c r="E3" s="1"/>
@@ -9736,16 +9628,16 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="9" t="s">
         <v>328</v>
       </c>
       <c r="E4" s="1"/>
@@ -9761,16 +9653,16 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="9" t="s">
         <v>330</v>
       </c>
       <c r="E5" s="1"/>
@@ -9786,16 +9678,16 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="1" t="s">
         <v>331</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="9" t="s">
         <v>332</v>
       </c>
       <c r="E6" s="1"/>
@@ -9811,16 +9703,16 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="9" t="s">
         <v>423</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="9" t="s">
         <v>334</v>
       </c>
       <c r="E7" s="1"/>
@@ -9853,272 +9745,271 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="20" customWidth="1"/>
+    <col min="1" max="1" width="43" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="15" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="6" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="38" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="19" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="1">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D2" s="30" t="s">
+      <c r="D2" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="E2" s="4"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="2">
         <v>37639</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="6">
+      <c r="G2" s="2"/>
+      <c r="H2" s="3">
         <v>1.3916450000000899</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="3">
         <v>103.895394999999</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>308</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="9" t="s">
         <v>309</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="5">
+      <c r="E3" s="1"/>
+      <c r="F3" s="2">
         <v>41275</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6">
+      <c r="G3" s="2"/>
+      <c r="H3" s="3">
         <v>1.3962699999999999</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="3">
         <v>103.89381</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="1">
         <v>3</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>310</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="9" t="s">
         <v>311</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="18">
+      <c r="E4" s="1"/>
+      <c r="F4" s="7">
         <v>39401</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6">
+      <c r="G4" s="2"/>
+      <c r="H4" s="3">
         <v>1.3971899999999999</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="3">
         <v>103.88924</v>
       </c>
     </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>312</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5">
+      <c r="E5" s="1"/>
+      <c r="F5" s="2">
         <v>42182</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6">
+      <c r="G5" s="2"/>
+      <c r="H5" s="3">
         <v>1.3982000000000001</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="3">
         <v>103.88122</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="1">
         <v>5</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>314</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5">
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
         <v>38381</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6">
+      <c r="G6" s="2"/>
+      <c r="H6" s="3">
         <v>1.3973500000000001</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="3">
         <v>103.87563</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="1">
         <v>6</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>316</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="9" t="s">
         <v>317</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="5">
+      <c r="E7" s="1"/>
+      <c r="F7" s="2">
         <v>38381</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6">
+      <c r="G7" s="2"/>
+      <c r="H7" s="3">
         <v>1.3919699999999999</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="3">
         <v>103.87624</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="B8" s="4">
+      <c r="B8" s="1">
         <v>7</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>318</v>
       </c>
-      <c r="D8" s="30" t="s">
+      <c r="D8" s="9" t="s">
         <v>319</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="5">
+      <c r="E8" s="1"/>
+      <c r="F8" s="2">
         <v>38381</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6">
+      <c r="G8" s="2"/>
+      <c r="H8" s="3">
         <v>1.3921300000000001</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="3">
         <v>103.88014</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="B9" s="4">
+      <c r="B9" s="1">
         <v>8</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="D9" s="30" t="s">
+      <c r="D9" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="5">
+      <c r="E9" s="1"/>
+      <c r="F9" s="2">
         <v>38381</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6">
+      <c r="G9" s="2"/>
+      <c r="H9" s="3">
         <v>1.3894299999999999</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="3">
         <v>103.88578</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>422</v>
       </c>
-      <c r="B10" s="4">
+      <c r="B10" s="1">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="9" t="s">
         <v>323</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="5">
+      <c r="E10" s="1"/>
+      <c r="F10" s="2">
         <v>38381</v>
       </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6">
+      <c r="G10" s="2"/>
+      <c r="H10" s="3">
         <v>1.3867399999999901</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="3">
         <v>103.89051000000001</v>
       </c>
     </row>
@@ -10135,57 +10026,56 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="43" style="20" customWidth="1"/>
+    <col min="1" max="1" width="43" style="10" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" customWidth="1"/>
     <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="20" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="10" customWidth="1"/>
     <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="7" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="38" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>428</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>437</v>
+      </c>
+      <c r="G1" s="19" t="s">
         <v>436</v>
       </c>
-      <c r="B1" s="34" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>428</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>427</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>426</v>
-      </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="21" t="s">
         <v>438</v>
       </c>
-      <c r="G1" s="34" t="s">
-        <v>437</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>439</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="21" t="s">
         <v>365</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="J1" s="19" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B2" s="1">
@@ -10194,7 +10084,7 @@
       <c r="C2" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="9" t="s">
         <v>115</v>
       </c>
       <c r="E2" s="1"/>
@@ -10208,10 +10098,9 @@
       <c r="I2" s="3">
         <v>103.845823333409</v>
       </c>
-      <c r="J2"/>
-    </row>
-    <row r="3" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B3" s="1">
@@ -10220,7 +10109,7 @@
       <c r="C3" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="9" t="s">
         <v>160</v>
       </c>
       <c r="E3" s="1"/>
@@ -10234,10 +10123,9 @@
       <c r="I3" s="3">
         <v>103.85057999999999</v>
       </c>
-      <c r="J3"/>
-    </row>
-    <row r="4" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="19" t="s">
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B4" s="1">
@@ -10246,7 +10134,7 @@
       <c r="C4" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="9" t="s">
         <v>162</v>
       </c>
       <c r="E4" s="1"/>
@@ -10260,10 +10148,9 @@
       <c r="I4" s="3">
         <v>103.85576</v>
       </c>
-      <c r="J4"/>
-    </row>
-    <row r="5" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B5" s="1">
@@ -10272,7 +10159,7 @@
       <c r="C5" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="9" t="s">
         <v>164</v>
       </c>
       <c r="E5" s="1"/>
@@ -10286,10 +10173,9 @@
       <c r="I5" s="3">
         <v>103.861064999999</v>
       </c>
-      <c r="J5"/>
-    </row>
-    <row r="6" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B6" s="1">
@@ -10298,7 +10184,7 @@
       <c r="C6" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="9" t="s">
         <v>166</v>
       </c>
       <c r="E6" s="1"/>
@@ -10312,10 +10198,9 @@
       <c r="I6" s="3">
         <v>103.86358</v>
       </c>
-      <c r="J6"/>
-    </row>
-    <row r="7" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B7" s="1">
@@ -10324,7 +10209,7 @@
       <c r="C7" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="9" t="s">
         <v>168</v>
       </c>
       <c r="E7" s="1"/>
@@ -10338,10 +10223,9 @@
       <c r="I7" s="3">
         <v>103.87542000000001</v>
       </c>
-      <c r="J7"/>
-    </row>
-    <row r="8" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B8" s="1">
@@ -10350,7 +10234,7 @@
       <c r="C8" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="9" t="s">
         <v>170</v>
       </c>
       <c r="E8" s="1"/>
@@ -10364,10 +10248,9 @@
       <c r="I8" s="3">
         <v>103.88252</v>
       </c>
-      <c r="J8"/>
-    </row>
-    <row r="9" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B9" s="1">
@@ -10376,7 +10259,7 @@
       <c r="C9" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="9" t="s">
         <v>172</v>
       </c>
       <c r="E9" s="1"/>
@@ -10390,10 +10273,9 @@
       <c r="I9" s="3">
         <v>103.88866</v>
       </c>
-      <c r="J9"/>
-    </row>
-    <row r="10" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B10" s="1">
@@ -10402,7 +10284,7 @@
       <c r="C10" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="9" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="1"/>
@@ -10416,10 +10298,9 @@
       <c r="I10" s="3">
         <v>103.89256499994799</v>
       </c>
-      <c r="J10"/>
-    </row>
-    <row r="11" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B11" s="1">
@@ -10428,7 +10309,7 @@
       <c r="C11" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="9" t="s">
         <v>175</v>
       </c>
       <c r="E11" s="1"/>
@@ -10442,10 +10323,9 @@
       <c r="I11" s="3">
         <v>103.88988499997799</v>
       </c>
-      <c r="J11"/>
-    </row>
-    <row r="12" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B12" s="1">
@@ -10454,7 +10334,7 @@
       <c r="C12" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="9" t="s">
         <v>177</v>
       </c>
       <c r="E12" s="1"/>
@@ -10468,10 +10348,9 @@
       <c r="I12" s="3">
         <v>103.88831999999999</v>
       </c>
-      <c r="J12"/>
-    </row>
-    <row r="13" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B13" s="1">
@@ -10480,7 +10359,7 @@
       <c r="C13" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="9" t="s">
         <v>179</v>
       </c>
       <c r="E13" s="1"/>
@@ -10494,10 +10373,9 @@
       <c r="I13" s="3">
         <v>103.87973</v>
       </c>
-      <c r="J13"/>
-    </row>
-    <row r="14" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B14" s="1">
@@ -10506,7 +10384,7 @@
       <c r="C14" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="9" t="s">
         <v>143</v>
       </c>
       <c r="E14" s="1"/>
@@ -10520,10 +10398,9 @@
       <c r="I14" s="3">
         <v>103.872915000161</v>
       </c>
-      <c r="J14"/>
-    </row>
-    <row r="15" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19" t="s">
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B15" s="1">
@@ -10532,7 +10409,7 @@
       <c r="C15" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D15" s="9" t="s">
         <v>182</v>
       </c>
       <c r="E15" s="1"/>
@@ -10546,10 +10423,9 @@
       <c r="I15" s="3">
         <v>103.86414000000001</v>
       </c>
-      <c r="J15"/>
-    </row>
-    <row r="16" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B16" s="1">
@@ -10558,7 +10434,7 @@
       <c r="C16" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E16" s="1"/>
@@ -10572,10 +10448,9 @@
       <c r="I16" s="3">
         <v>103.848374999995</v>
       </c>
-      <c r="J16"/>
-    </row>
-    <row r="17" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19" t="s">
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B17" s="1">
@@ -10584,7 +10459,7 @@
       <c r="C17" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="9" t="s">
         <v>185</v>
       </c>
       <c r="E17" s="1"/>
@@ -10598,10 +10473,9 @@
       <c r="I17" s="3">
         <v>103.83938000000001</v>
       </c>
-      <c r="J17"/>
-    </row>
-    <row r="18" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19" t="s">
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B18" s="1">
@@ -10610,7 +10484,7 @@
       <c r="C18" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="9" t="s">
         <v>187</v>
       </c>
       <c r="E18" s="1"/>
@@ -10624,10 +10498,9 @@
       <c r="I18" s="3">
         <v>103.83994000000899</v>
       </c>
-      <c r="J18"/>
-    </row>
-    <row r="19" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B19" s="1">
@@ -10636,20 +10509,19 @@
       <c r="C19" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="9" t="s">
         <v>429</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2" t="s">
-        <v>430</v>
+        <v>512</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19"/>
-    </row>
-    <row r="20" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B20" s="1">
@@ -10658,7 +10530,7 @@
       <c r="C20" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="9" t="s">
         <v>189</v>
       </c>
       <c r="E20" s="1"/>
@@ -10672,10 +10544,9 @@
       <c r="I20" s="3">
         <v>103.815499999941</v>
       </c>
-      <c r="J20"/>
-    </row>
-    <row r="21" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B21" s="1">
@@ -10684,7 +10555,7 @@
       <c r="C21" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="9" t="s">
         <v>191</v>
       </c>
       <c r="E21" s="1"/>
@@ -10698,10 +10569,9 @@
       <c r="I21" s="3">
         <v>103.80755000000001</v>
       </c>
-      <c r="J21"/>
-    </row>
-    <row r="22" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="19" t="s">
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B22" s="1">
@@ -10710,7 +10580,7 @@
       <c r="C22" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D22" s="19" t="s">
+      <c r="D22" s="9" t="s">
         <v>193</v>
       </c>
       <c r="E22" s="1"/>
@@ -10724,10 +10594,9 @@
       <c r="I22" s="3">
         <v>103.7962</v>
       </c>
-      <c r="J22"/>
-    </row>
-    <row r="23" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="19" t="s">
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B23" s="1">
@@ -10736,7 +10605,7 @@
       <c r="C23" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="9" t="s">
         <v>45</v>
       </c>
       <c r="E23" s="1"/>
@@ -10750,10 +10619,9 @@
       <c r="I23" s="3">
         <v>103.79029000003101</v>
       </c>
-      <c r="J23"/>
-    </row>
-    <row r="24" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="19" t="s">
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B24" s="1">
@@ -10762,7 +10630,7 @@
       <c r="C24" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="9" t="s">
         <v>196</v>
       </c>
       <c r="E24" s="1"/>
@@ -10776,10 +10644,9 @@
       <c r="I24" s="3">
         <v>103.78712</v>
       </c>
-      <c r="J24"/>
-    </row>
-    <row r="25" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="19" t="s">
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B25" s="1">
@@ -10788,7 +10655,7 @@
       <c r="C25" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="9" t="s">
         <v>198</v>
       </c>
       <c r="E25" s="1"/>
@@ -10802,10 +10669,9 @@
       <c r="I25" s="3">
         <v>103.78452</v>
       </c>
-      <c r="J25"/>
-    </row>
-    <row r="26" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="19" t="s">
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B26" s="1">
@@ -10814,7 +10680,7 @@
       <c r="C26" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D26" s="19" t="s">
+      <c r="D26" s="9" t="s">
         <v>200</v>
       </c>
       <c r="E26" s="1"/>
@@ -10828,10 +10694,9 @@
       <c r="I26" s="3">
         <v>103.78175</v>
       </c>
-      <c r="J26"/>
-    </row>
-    <row r="27" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="19" t="s">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B27" s="1">
@@ -10840,7 +10705,7 @@
       <c r="C27" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="9" t="s">
         <v>202</v>
       </c>
       <c r="E27" s="1"/>
@@ -10854,10 +10719,9 @@
       <c r="I27" s="3">
         <v>103.79155</v>
       </c>
-      <c r="J27"/>
-    </row>
-    <row r="28" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B28" s="1">
@@ -10866,7 +10730,7 @@
       <c r="C28" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="D28" s="19" t="s">
+      <c r="D28" s="9" t="s">
         <v>204</v>
       </c>
       <c r="E28" s="1"/>
@@ -10880,10 +10744,9 @@
       <c r="I28" s="3">
         <v>103.80278</v>
       </c>
-      <c r="J28"/>
-    </row>
-    <row r="29" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19" t="s">
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B29" s="1">
@@ -10892,7 +10755,7 @@
       <c r="C29" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="9" t="s">
         <v>206</v>
       </c>
       <c r="E29" s="1"/>
@@ -10906,10 +10769,9 @@
       <c r="I29" s="3">
         <v>103.80981</v>
       </c>
-      <c r="J29"/>
-    </row>
-    <row r="30" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="19" t="s">
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B30" s="1">
@@ -10918,7 +10780,7 @@
       <c r="C30" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="9" t="s">
         <v>125</v>
       </c>
       <c r="E30" s="1"/>
@@ -10932,73 +10794,57 @@
       <c r="I30" s="3">
         <v>103.82249499999401</v>
       </c>
-      <c r="J30"/>
-    </row>
-    <row r="31" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="19" t="s">
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B31" s="1">
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D31" s="20" t="s">
-        <v>461</v>
-      </c>
-      <c r="E31"/>
-      <c r="F31" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="G31"/>
-      <c r="H31"/>
-      <c r="I31"/>
-      <c r="J31"/>
-    </row>
-    <row r="32" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="19" t="s">
+        <v>457</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B32" s="1">
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="D32" s="20" t="s">
-        <v>462</v>
-      </c>
-      <c r="E32"/>
-      <c r="F32" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="G32"/>
-      <c r="H32"/>
-      <c r="I32"/>
-      <c r="J32"/>
-    </row>
-    <row r="33" spans="1:10" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="19" t="s">
+        <v>458</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>461</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
         <v>154</v>
       </c>
       <c r="B33" s="1">
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D33" s="20" t="s">
-        <v>463</v>
-      </c>
-      <c r="E33"/>
-      <c r="F33" s="16" t="s">
-        <v>430</v>
-      </c>
-      <c r="G33"/>
-      <c r="H33"/>
-      <c r="I33"/>
-      <c r="J33"/>
+        <v>459</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>512</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>

--- a/Singapore/metro/station_line_list/station_list.xlsx
+++ b/Singapore/metro/station_line_list/station_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wei Zhou\Documents\zhouwei file\Github-Project\VeDa-Public-Transit-Network\Singapore\metro\station_line_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A722F665-3A16-45BA-BFDF-7DDB86E67C89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4870657B-4876-4E28-A3E8-8A25709EF0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4245" yWindow="3825" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="line_info" sheetId="3" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="514">
   <si>
     <t>East-West Line</t>
   </si>
@@ -1297,9 +1297,6 @@
     <t>LRT</t>
   </si>
   <si>
-    <t>Type</t>
-  </si>
-  <si>
     <t>MRT</t>
   </si>
   <si>
@@ -1363,9 +1360,6 @@
     <t>BP6</t>
   </si>
   <si>
-    <t>Cycle</t>
-  </si>
-  <si>
     <t>F</t>
   </si>
   <si>
@@ -1489,9 +1483,6 @@
     <t>Transfer type</t>
   </si>
   <si>
-    <t>Line Code</t>
-  </si>
-  <si>
     <t>Line Id</t>
   </si>
   <si>
@@ -1525,9 +1516,6 @@
     <t>East-West Line Changi Airport Extension</t>
   </si>
   <si>
-    <t>Sheet Name</t>
-  </si>
-  <si>
     <t>DT</t>
   </si>
   <si>
@@ -1537,9 +1525,6 @@
     <t>CC</t>
   </si>
   <si>
-    <t>Line Color</t>
-  </si>
-  <si>
     <t>BPC</t>
   </si>
   <si>
@@ -1577,6 +1562,24 @@
   </si>
   <si>
     <t>u/c</t>
+  </si>
+  <si>
+    <t>sheet_name</t>
+  </si>
+  <si>
+    <t>line_name</t>
+  </si>
+  <si>
+    <t>line_code</t>
+  </si>
+  <si>
+    <t>line_type</t>
+  </si>
+  <si>
+    <t>line_color</t>
+  </si>
+  <si>
+    <t>cycle</t>
   </si>
 </sst>
 </file>
@@ -2620,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D3357A-7751-47E9-8470-47602D98DE82}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2644,22 +2647,22 @@
   <sheetData>
     <row r="1" spans="1:14" s="15" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>495</v>
+        <v>508</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>435</v>
+        <v>509</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>483</v>
+        <v>510</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>499</v>
+        <v>512</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>441</v>
+        <v>513</v>
       </c>
       <c r="G1" s="11"/>
       <c r="H1" s="11"/>
@@ -2672,22 +2675,22 @@
     </row>
     <row r="2" spans="1:14" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B2" s="9" t="s">
         <v>284</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>418</v>
       </c>
       <c r="E2" s="36" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K2" s="26"/>
       <c r="M2" s="27"/>
@@ -2695,22 +2698,22 @@
     </row>
     <row r="3" spans="1:14" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>284</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D3" s="9" t="s">
         <v>418</v>
       </c>
       <c r="E3" s="36" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K3" s="26"/>
       <c r="M3" s="27"/>
@@ -2718,22 +2721,22 @@
     </row>
     <row r="4" spans="1:14" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>418</v>
       </c>
       <c r="E4" s="36" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K4" s="26"/>
       <c r="M4" s="27"/>
@@ -2741,22 +2744,22 @@
     </row>
     <row r="5" spans="1:14" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>418</v>
       </c>
       <c r="E5" s="36" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K5" s="26"/>
       <c r="M5" s="27"/>
@@ -2764,22 +2767,22 @@
     </row>
     <row r="6" spans="1:14" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="D6" s="9" t="s">
         <v>418</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K6" s="26"/>
       <c r="M6" s="27"/>
@@ -2787,22 +2790,22 @@
     </row>
     <row r="7" spans="1:14" s="25" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>418</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="K7" s="26"/>
       <c r="M7" s="27"/>
@@ -2810,22 +2813,22 @@
     </row>
     <row r="8" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K8" s="8"/>
       <c r="M8" s="29"/>
@@ -2833,22 +2836,22 @@
     </row>
     <row r="9" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>392</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E9" s="30" t="s">
-        <v>506</v>
+        <v>501</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K9" s="8"/>
       <c r="M9" s="29"/>
@@ -2856,22 +2859,22 @@
     </row>
     <row r="10" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>208</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E10" s="31" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K10" s="8"/>
       <c r="M10" s="29"/>
@@ -2879,22 +2882,22 @@
     </row>
     <row r="11" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E11" s="32" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K11" s="8"/>
       <c r="M11" s="29"/>
@@ -2902,22 +2905,22 @@
     </row>
     <row r="12" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E12" s="32" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K12" s="8"/>
       <c r="M12" s="29"/>
@@ -2925,22 +2928,22 @@
     </row>
     <row r="13" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="28" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E13" s="33" t="s">
-        <v>505</v>
+        <v>500</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K13" s="8"/>
       <c r="M13" s="29"/>
@@ -2948,22 +2951,22 @@
     </row>
     <row r="14" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K14" s="8"/>
       <c r="M14" s="29"/>
@@ -2971,22 +2974,22 @@
     </row>
     <row r="15" spans="1:14" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>267</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>509</v>
+        <v>504</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="K15" s="8"/>
       <c r="M15" s="29"/>
@@ -3021,7 +3024,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3039,28 +3042,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>368</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>438</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>365</v>
@@ -3156,8 +3159,8 @@
   </sheetPr>
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F37:F38"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3175,28 +3178,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>368</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>438</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>365</v>
@@ -3291,11 +3294,11 @@
         <v>399</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="3"/>
@@ -4084,14 +4087,14 @@
         <v>36</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D37" s="9" t="s">
         <v>450</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>452</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G37" s="1"/>
       <c r="H37" s="3"/>
@@ -4105,14 +4108,14 @@
         <v>37</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="D38" s="9" t="s">
         <v>451</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>453</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G38" s="1"/>
       <c r="H38" s="3"/>
@@ -4150,28 +4153,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>368</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>438</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>365</v>
@@ -5037,28 +5040,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>368</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>438</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>365</v>
@@ -5069,13 +5072,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>12</v>
@@ -5094,7 +5097,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -5119,7 +5122,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -5154,7 +5157,7 @@
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -5173,28 +5176,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>368</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>438</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>365</v>
@@ -5241,7 +5244,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="1"/>
       <c r="F3" s="24" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G3" s="1"/>
       <c r="H3" s="3"/>
@@ -5630,13 +5633,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -5674,28 +5677,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>368</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>438</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>365</v>
@@ -5787,14 +5790,14 @@
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="24" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5" s="3"/>
@@ -5861,11 +5864,11 @@
         <v>372</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E8" s="1"/>
       <c r="F8" s="24" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G8" s="1"/>
       <c r="H8" s="3"/>
@@ -6455,28 +6458,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>368</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>438</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>365</v>
@@ -6721,11 +6724,11 @@
         <v>401</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="3"/>
@@ -6739,7 +6742,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>225</v>
@@ -6814,7 +6817,7 @@
         <v>14</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D15" s="9" t="s">
         <v>111</v>
@@ -6889,7 +6892,7 @@
         <v>17</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D18" s="9" t="s">
         <v>35</v>
@@ -6964,7 +6967,7 @@
         <v>20</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="D21" s="9" t="s">
         <v>120</v>
@@ -6992,11 +6995,11 @@
         <v>408</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="3"/>
@@ -7035,13 +7038,13 @@
         <v>23</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
@@ -7052,10 +7055,10 @@
         <v>24</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="F25" s="7">
         <v>45466</v>
@@ -7069,10 +7072,10 @@
         <v>25</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="F26" s="7">
         <v>45466</v>
@@ -7086,10 +7089,10 @@
         <v>26</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="F27" s="7">
         <v>45466</v>
@@ -7103,10 +7106,10 @@
         <v>27</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="F28" s="7">
         <v>45466</v>
@@ -7120,10 +7123,10 @@
         <v>28</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="F29" s="7">
         <v>45466</v>
@@ -7137,10 +7140,10 @@
         <v>29</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="F30" s="7">
         <v>45466</v>
@@ -7154,10 +7157,10 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F31" s="7">
         <v>45466</v>
@@ -7171,13 +7174,13 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -7188,13 +7191,13 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -7207,7 +7210,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9ACE361-94CD-4EC6-9D43-7A3F6D5DC51A}">
   <dimension ref="A1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -7224,25 +7227,25 @@
   <sheetData>
     <row r="1" spans="1:7" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="C1" s="11" t="s">
+        <v>426</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>427</v>
       </c>
-      <c r="D1" s="11" t="s">
-        <v>428</v>
-      </c>
       <c r="E1" s="11" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -7262,7 +7265,7 @@
         <v>389</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -7273,41 +7276,41 @@
         <v>210</v>
       </c>
       <c r="D3" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E3" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F3" t="s">
         <v>390</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C4" t="s">
         <v>210</v>
       </c>
       <c r="D4" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E4" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F4" t="s">
         <v>390</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C5" t="s">
         <v>153</v>
@@ -7322,12 +7325,12 @@
         <v>389</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C6" t="s">
         <v>151</v>
@@ -7342,7 +7345,7 @@
         <v>389</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -7613,16 +7616,16 @@
         <v>210</v>
       </c>
       <c r="D20" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E20" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="F20" t="s">
         <v>390</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -7642,7 +7645,7 @@
         <v>389</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -7662,7 +7665,7 @@
         <v>389</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -7682,7 +7685,7 @@
         <v>390</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -7702,7 +7705,7 @@
         <v>389</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -7722,7 +7725,7 @@
         <v>389</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -7742,7 +7745,7 @@
         <v>389</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -7762,7 +7765,7 @@
         <v>389</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -7782,7 +7785,7 @@
         <v>389</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -7802,7 +7805,7 @@
         <v>389</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -7822,7 +7825,7 @@
         <v>390</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -7842,7 +7845,7 @@
         <v>390</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -7862,7 +7865,7 @@
         <v>389</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -7882,7 +7885,7 @@
         <v>389</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -7902,7 +7905,7 @@
         <v>389</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -7922,7 +7925,7 @@
         <v>389</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -7942,7 +7945,7 @@
         <v>389</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -7956,13 +7959,13 @@
         <v>34</v>
       </c>
       <c r="E37" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F37" t="s">
         <v>389</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -7982,7 +7985,7 @@
         <v>389</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -8002,7 +8005,7 @@
         <v>389</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -8013,7 +8016,7 @@
         <v>12</v>
       </c>
       <c r="D40" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E40" t="s">
         <v>364</v>
@@ -8022,7 +8025,7 @@
         <v>389</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -8042,7 +8045,7 @@
         <v>389</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -8056,13 +8059,13 @@
         <v>126</v>
       </c>
       <c r="E42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F42" t="s">
         <v>389</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -8082,7 +8085,7 @@
         <v>389</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -8102,7 +8105,7 @@
         <v>389</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -8122,7 +8125,7 @@
         <v>389</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -8142,7 +8145,7 @@
         <v>389</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -8162,7 +8165,7 @@
         <v>389</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -8182,7 +8185,7 @@
         <v>389</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -8202,7 +8205,7 @@
         <v>389</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -8222,7 +8225,7 @@
         <v>389</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -8242,7 +8245,7 @@
         <v>389</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -8262,7 +8265,7 @@
         <v>389</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -8282,7 +8285,7 @@
         <v>390</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -8302,7 +8305,7 @@
         <v>389</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -8322,7 +8325,7 @@
         <v>389</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -8342,7 +8345,7 @@
         <v>389</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -8362,7 +8365,7 @@
         <v>389</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -8382,7 +8385,7 @@
         <v>389</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -8433,7 +8436,7 @@
         <v>225</v>
       </c>
       <c r="D61" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E61" t="s">
         <v>400</v>
@@ -8453,7 +8456,7 @@
         <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="E62" t="s">
         <v>379</v>
@@ -8473,10 +8476,10 @@
         <v>35</v>
       </c>
       <c r="D63" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="E63" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F63" t="s">
         <v>389</v>
@@ -8493,7 +8496,7 @@
         <v>120</v>
       </c>
       <c r="D64" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E64" t="s">
         <v>382</v>
@@ -8536,28 +8539,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="22" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>368</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" s="17" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="18" t="s">
         <v>437</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="18" t="s">
-        <v>438</v>
       </c>
       <c r="I1" s="18" t="s">
         <v>365</v>
@@ -8699,7 +8702,7 @@
         <v>6</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D7" s="9" t="s">
         <v>210</v>
@@ -8747,28 +8750,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>368</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>438</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>365</v>
@@ -8779,13 +8782,13 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>210</v>
@@ -8804,7 +8807,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -8829,7 +8832,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -8854,7 +8857,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -8879,7 +8882,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -8904,7 +8907,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -8929,7 +8932,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -8954,7 +8957,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -8979,16 +8982,16 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B10" s="1">
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="F10" s="2">
         <v>36470</v>
@@ -9029,28 +9032,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>368</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>438</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>365</v>
@@ -9061,7 +9064,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -9086,7 +9089,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -9111,7 +9114,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -9136,7 +9139,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -9161,7 +9164,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -9186,7 +9189,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -9211,7 +9214,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -9236,7 +9239,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -9290,28 +9293,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>368</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>438</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>365</v>
@@ -9322,7 +9325,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -9347,7 +9350,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -9372,7 +9375,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -9385,7 +9388,7 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G4" s="1"/>
       <c r="H4" s="3"/>
@@ -9393,7 +9396,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -9418,7 +9421,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -9443,7 +9446,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -9468,7 +9471,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -9493,7 +9496,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -9547,28 +9550,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>368</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>438</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>365</v>
@@ -9579,7 +9582,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -9604,7 +9607,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -9629,7 +9632,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -9654,7 +9657,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -9679,7 +9682,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -9704,7 +9707,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -9758,28 +9761,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>368</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>438</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>365</v>
@@ -9790,7 +9793,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
@@ -9815,7 +9818,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B3" s="1">
         <v>2</v>
@@ -9840,7 +9843,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B4" s="1">
         <v>3</v>
@@ -9865,7 +9868,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B5" s="1">
         <v>4</v>
@@ -9890,7 +9893,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B6" s="1">
         <v>5</v>
@@ -9915,7 +9918,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B7" s="1">
         <v>6</v>
@@ -9940,7 +9943,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B8" s="1">
         <v>7</v>
@@ -9965,7 +9968,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B9" s="1">
         <v>8</v>
@@ -9990,7 +9993,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B10" s="1">
         <v>9</v>
@@ -10026,7 +10029,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10044,28 +10047,28 @@
   <sheetData>
     <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B1" s="19" t="s">
         <v>368</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F1" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="21" t="s">
         <v>437</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>436</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>438</v>
       </c>
       <c r="I1" s="21" t="s">
         <v>365</v>
@@ -10510,11 +10513,11 @@
         <v>394</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E19" s="1"/>
       <c r="F19" s="2" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="3"/>
@@ -10803,13 +10806,13 @@
         <v>30</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -10820,13 +10823,13 @@
         <v>31</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -10837,13 +10840,13 @@
         <v>32</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>

--- a/Singapore/metro/station_line_list/station_list.xlsx
+++ b/Singapore/metro/station_line_list/station_list.xlsx
@@ -8,27 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wei Zhou\Documents\zhouwei file\Github-Project\VeDa-Public-Transit-Network\Singapore\metro\station_line_list\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4870657B-4876-4E28-A3E8-8A25709EF0A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26969693-A503-4B48-B2C6-02F1925EBA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="3825" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="3945" windowWidth="21600" windowHeight="11295" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="line_info" sheetId="3" r:id="rId1"/>
     <sheet name="transfer" sheetId="6" r:id="rId2"/>
-    <sheet name="BP" sheetId="7" r:id="rId3"/>
-    <sheet name="BPC" sheetId="8" r:id="rId4"/>
-    <sheet name="PE" sheetId="12" r:id="rId5"/>
-    <sheet name="PW" sheetId="11" r:id="rId6"/>
-    <sheet name="SE" sheetId="13" r:id="rId7"/>
-    <sheet name="SW" sheetId="14" r:id="rId8"/>
-    <sheet name="CC" sheetId="15" r:id="rId9"/>
-    <sheet name="CE" sheetId="16" r:id="rId10"/>
-    <sheet name="DT" sheetId="17" r:id="rId11"/>
-    <sheet name="EW" sheetId="18" r:id="rId12"/>
-    <sheet name="CG" sheetId="19" r:id="rId13"/>
-    <sheet name="NE" sheetId="20" r:id="rId14"/>
-    <sheet name="NS" sheetId="21" r:id="rId15"/>
-    <sheet name="TE" sheetId="23" r:id="rId16"/>
+    <sheet name="transfer_info" sheetId="24" r:id="rId3"/>
+    <sheet name="BP" sheetId="7" r:id="rId4"/>
+    <sheet name="BPC" sheetId="8" r:id="rId5"/>
+    <sheet name="PE" sheetId="12" r:id="rId6"/>
+    <sheet name="PW" sheetId="11" r:id="rId7"/>
+    <sheet name="SE" sheetId="13" r:id="rId8"/>
+    <sheet name="SW" sheetId="14" r:id="rId9"/>
+    <sheet name="CC" sheetId="15" r:id="rId10"/>
+    <sheet name="CE" sheetId="16" r:id="rId11"/>
+    <sheet name="DT" sheetId="17" r:id="rId12"/>
+    <sheet name="EW" sheetId="18" r:id="rId13"/>
+    <sheet name="CG" sheetId="19" r:id="rId14"/>
+    <sheet name="NE" sheetId="20" r:id="rId15"/>
+    <sheet name="NS" sheetId="21" r:id="rId16"/>
+    <sheet name="TE" sheetId="23" r:id="rId17"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">line_info!#REF!</definedName>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1722" uniqueCount="551">
   <si>
     <t>East-West Line</t>
   </si>
@@ -1580,6 +1581,117 @@
   </si>
   <si>
     <t>cycle</t>
+  </si>
+  <si>
+    <t>stn_name</t>
+  </si>
+  <si>
+    <t>joint_stn_code</t>
+  </si>
+  <si>
+    <t>line_number</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>stn_code</t>
+  </si>
+  <si>
+    <t>open_dt</t>
+  </si>
+  <si>
+    <t>CE1-DT16</t>
+  </si>
+  <si>
+    <t>NS17-CC15</t>
+  </si>
+  <si>
+    <t>DT9-CC19</t>
+  </si>
+  <si>
+    <t>EW12-DT14</t>
+  </si>
+  <si>
+    <t>BP6-DT1</t>
+  </si>
+  <si>
+    <t>CC22-EW21</t>
+  </si>
+  <si>
+    <t>TE9-CC17</t>
+  </si>
+  <si>
+    <t>DT19-NE4</t>
+  </si>
+  <si>
+    <t>BP1-NS4</t>
+  </si>
+  <si>
+    <t>NS25-EW13</t>
+  </si>
+  <si>
+    <t>CC1-NS24-NE6</t>
+  </si>
+  <si>
+    <t>DT35-CG1</t>
+  </si>
+  <si>
+    <t>CC29-NE1</t>
+  </si>
+  <si>
+    <t>EW24-NS1</t>
+  </si>
+  <si>
+    <t>DT12-NE7</t>
+  </si>
+  <si>
+    <t>DT26-CC10</t>
+  </si>
+  <si>
+    <t>NS27-TE20-CE2</t>
+  </si>
+  <si>
+    <t>NS21-DT11</t>
+  </si>
+  <si>
+    <t>TE14-NS22</t>
+  </si>
+  <si>
+    <t>EW16-NE3-TE17</t>
+  </si>
+  <si>
+    <t>EW8-CC9</t>
+  </si>
+  <si>
+    <t>CC4-DT15</t>
+  </si>
+  <si>
+    <t>NE17-PTC</t>
+  </si>
+  <si>
+    <t>EW14-NS26</t>
+  </si>
+  <si>
+    <t>STC-NE16</t>
+  </si>
+  <si>
+    <t>CC13-NE12</t>
+  </si>
+  <si>
+    <t>DT10-TE11</t>
+  </si>
+  <si>
+    <t>EW2-DT32</t>
+  </si>
+  <si>
+    <t>CG-EW4</t>
+  </si>
+  <si>
+    <t>NS9-TE2</t>
+  </si>
+  <si>
+    <t>transfer_type</t>
   </si>
 </sst>
 </file>
@@ -2149,7 +2261,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2254,6 +2366,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -2623,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38D3357A-7751-47E9-8470-47602D98DE82}">
   <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3017,6 +3135,840 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E154859D-E9AA-4E11-9D9C-E60513ACA486}">
+  <sheetPr>
+    <tabColor rgb="FFFA9E0D"/>
+  </sheetPr>
+  <dimension ref="A1:J33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="43" style="10" customWidth="1"/>
+    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.28515625" style="7" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" customWidth="1"/>
+    <col min="8" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="19" t="s">
+        <v>434</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>427</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>426</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>425</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>435</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>437</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="J1" s="19" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="2">
+        <v>40285</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="3">
+        <v>1.29922666669347</v>
+      </c>
+      <c r="I2" s="3">
+        <v>103.845823333409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="F3" s="2">
+        <v>40285</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="3">
+        <v>1.29686999999999</v>
+      </c>
+      <c r="I3" s="3">
+        <v>103.85057999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2">
+        <v>40285</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="3">
+        <v>1.29338</v>
+      </c>
+      <c r="I4" s="3">
+        <v>103.85576</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="2">
+        <v>40285</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="3">
+        <v>1.2926450000003999</v>
+      </c>
+      <c r="I5" s="3">
+        <v>103.861064999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="2">
+        <v>40285</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="3">
+        <v>1.2996799999999999</v>
+      </c>
+      <c r="I6" s="3">
+        <v>103.86358</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B7" s="1">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="2">
+        <v>40285</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="3">
+        <v>1.30287</v>
+      </c>
+      <c r="I7" s="3">
+        <v>103.87542000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="2">
+        <v>40285</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8" s="3">
+        <v>1.30622999999999</v>
+      </c>
+      <c r="I8" s="3">
+        <v>103.88252</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="1">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="2">
+        <v>40285</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="3">
+        <v>1.3084</v>
+      </c>
+      <c r="I9" s="3">
+        <v>103.88866</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B10" s="1">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="2">
+        <v>40285</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="3">
+        <v>1.31778500003273</v>
+      </c>
+      <c r="I10" s="3">
+        <v>103.89256499994799</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B11" s="1">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="2">
+        <v>40285</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="3">
+        <v>1.3263600000344</v>
+      </c>
+      <c r="I11" s="3">
+        <v>103.88988499997799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="2">
+        <v>40285</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="3">
+        <v>1.33544</v>
+      </c>
+      <c r="I12" s="3">
+        <v>103.88831999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="1">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="2">
+        <v>39961</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="3">
+        <v>1.3428599999999999</v>
+      </c>
+      <c r="I13" s="3">
+        <v>103.87973</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B14" s="1">
+        <v>13</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="2">
+        <v>39961</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="3">
+        <v>1.3501500000855</v>
+      </c>
+      <c r="I14" s="3">
+        <v>103.872915000161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B15" s="1">
+        <v>14</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="2">
+        <v>39961</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="3">
+        <v>1.35161</v>
+      </c>
+      <c r="I15" s="3">
+        <v>103.86414000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="2">
+        <v>39961</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="3">
+        <v>1.3513600000044199</v>
+      </c>
+      <c r="I16" s="3">
+        <v>103.848374999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B17" s="1">
+        <v>16</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="2">
+        <v>39961</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="3">
+        <v>1.34904</v>
+      </c>
+      <c r="I17" s="3">
+        <v>103.83938000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" s="1">
+        <v>17</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="2">
+        <v>40824</v>
+      </c>
+      <c r="G18" s="1"/>
+      <c r="H18" s="3">
+        <v>1.3374300000118</v>
+      </c>
+      <c r="I18" s="3">
+        <v>103.83994000000899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B19" s="1">
+        <v>18</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>428</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="2" t="s">
+        <v>507</v>
+      </c>
+      <c r="G19" s="1"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B20" s="1">
+        <v>19</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="2">
+        <v>40824</v>
+      </c>
+      <c r="G20" s="1"/>
+      <c r="H20" s="3">
+        <v>1.3222650000482199</v>
+      </c>
+      <c r="I20" s="3">
+        <v>103.815499999941</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="2">
+        <v>40824</v>
+      </c>
+      <c r="G21" s="1"/>
+      <c r="H21" s="3">
+        <v>1.31741</v>
+      </c>
+      <c r="I21" s="3">
+        <v>103.80755000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="2">
+        <v>40824</v>
+      </c>
+      <c r="G22" s="1"/>
+      <c r="H22" s="3">
+        <v>1.3124</v>
+      </c>
+      <c r="I22" s="3">
+        <v>103.7962</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B23" s="1">
+        <v>22</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="2">
+        <v>40824</v>
+      </c>
+      <c r="G23" s="1"/>
+      <c r="H23" s="3">
+        <v>1.3068650000088999</v>
+      </c>
+      <c r="I23" s="3">
+        <v>103.79029000003101</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="1">
+        <v>23</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E24" s="1"/>
+      <c r="F24" s="2">
+        <v>40824</v>
+      </c>
+      <c r="G24" s="1"/>
+      <c r="H24" s="3">
+        <v>1.2993699999999899</v>
+      </c>
+      <c r="I24" s="3">
+        <v>103.78712</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B25" s="1">
+        <v>24</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="1"/>
+      <c r="F25" s="2">
+        <v>40824</v>
+      </c>
+      <c r="G25" s="1"/>
+      <c r="H25" s="3">
+        <v>1.29372</v>
+      </c>
+      <c r="I25" s="3">
+        <v>103.78452</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B26" s="1">
+        <v>25</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="2">
+        <v>40824</v>
+      </c>
+      <c r="G26" s="1"/>
+      <c r="H26" s="3">
+        <v>1.28268</v>
+      </c>
+      <c r="I26" s="3">
+        <v>103.78175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B27" s="1">
+        <v>26</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="2">
+        <v>40824</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27" s="3">
+        <v>1.2761899999999999</v>
+      </c>
+      <c r="I27" s="3">
+        <v>103.79155</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B28" s="1">
+        <v>27</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2">
+        <v>40824</v>
+      </c>
+      <c r="G28" s="1"/>
+      <c r="H28" s="3">
+        <v>1.2723199999999899</v>
+      </c>
+      <c r="I28" s="3">
+        <v>103.80278</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B29" s="1">
+        <v>28</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2">
+        <v>40824</v>
+      </c>
+      <c r="G29" s="1"/>
+      <c r="H29" s="3">
+        <v>1.2706299999999899</v>
+      </c>
+      <c r="I29" s="3">
+        <v>103.80981</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B30" s="1">
+        <v>29</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2">
+        <v>40824</v>
+      </c>
+      <c r="G30" s="1"/>
+      <c r="H30" s="3">
+        <v>1.2653450000191999</v>
+      </c>
+      <c r="I30" s="3">
+        <v>103.82249499999401</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B31" s="1">
+        <v>30</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B32" s="1">
+        <v>31</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>459</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B33" s="1">
+        <v>32</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>460</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CCFA46-0385-4617-B370-73012B0F3528}">
   <sheetPr>
     <tabColor rgb="FFFA9E0D"/>
@@ -3152,7 +4104,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B45948D0-5C44-4B1D-8072-3F8B3AFA7590}">
   <sheetPr>
     <tabColor rgb="FF005EC4"/>
@@ -4127,7 +5079,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85009965-9F2F-4E53-8255-B5AA22FC4BFC}">
   <sheetPr>
     <tabColor rgb="FF009645"/>
@@ -5014,7 +5966,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C40DCA03-6193-4892-8E35-87ADA95150A5}">
   <sheetPr>
     <tabColor rgb="FF009645"/>
@@ -5150,14 +6102,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D35C25EA-7820-4911-A5C1-30394B215260}">
   <sheetPr>
     <tabColor rgb="FF9900AA"/>
   </sheetPr>
   <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
@@ -5648,7 +6600,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBB7B374-F8B4-4EBE-8A43-777D77291595}">
   <sheetPr>
     <tabColor rgb="FFD42E12"/>
@@ -6430,7 +7382,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A4BAF5-0F33-4C97-B8E7-FF562603A15E}">
   <sheetPr>
     <tabColor rgb="FF9D5B25"/>
@@ -7211,7 +8163,7 @@
   <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F31" sqref="C30:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8514,6 +9466,2003 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84B58680-BE35-48F1-BAC9-69277093B9F5}">
+  <dimension ref="A1:I68"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="15.85546875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="9" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" style="4" customWidth="1"/>
+    <col min="7" max="7" width="37.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.42578125" style="7" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="37" t="s">
+        <v>514</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>515</v>
+      </c>
+      <c r="C1" s="37" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>516</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>518</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>517</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>509</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>510</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D2" s="4">
+        <v>2</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" s="4">
+        <v>2</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="I2" s="7">
+        <v>40922</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D3" s="4">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="4">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I3" s="7">
+        <v>41630</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D4" s="4">
+        <v>2</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F4" s="4">
+        <v>18</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="I4" s="7">
+        <v>32088</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F5" s="4">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="I5" s="7">
+        <v>39961</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="F6" s="4">
+        <v>19</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="I6" s="7">
+        <v>40824</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>522</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="F7" s="4">
+        <v>9</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I7" s="7">
+        <v>42365</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="4">
+        <v>12</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="I8" s="7">
+        <v>32816</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>523</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F9" s="4">
+        <v>14</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I9" s="7">
+        <v>41630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C10" t="s">
+        <v>390</v>
+      </c>
+      <c r="D10" s="4">
+        <v>3</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F10" s="4">
+        <v>6</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I10" s="7">
+        <v>36470</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C11" t="s">
+        <v>390</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="I11" s="7">
+        <v>36470</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>524</v>
+      </c>
+      <c r="C12" t="s">
+        <v>390</v>
+      </c>
+      <c r="D12" s="4">
+        <v>3</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="F12" s="4">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I12" s="7">
+        <v>42365</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="4">
+        <v>21</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="I13" s="7">
+        <v>32214</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F14" s="4">
+        <v>22</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="I14" s="7">
+        <v>40824</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F15" s="4">
+        <v>17</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="I15" s="7">
+        <v>40824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>283</v>
+      </c>
+      <c r="F16" s="4">
+        <v>9</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="I16" s="7">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D17" s="4">
+        <v>2</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I17" s="7">
+        <v>37792</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" s="4">
+        <v>2</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="F18" s="4">
+        <v>19</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I18" s="7">
+        <v>41630</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D19" s="4">
+        <v>2</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="4">
+        <v>5</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="I19" s="7">
+        <v>32942</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>528</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="F20" s="4">
+        <v>1</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="I20" s="7">
+        <v>36470</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D21" s="4">
+        <v>2</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F21" s="4">
+        <v>13</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="I21" s="7">
+        <v>32123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D22" s="4">
+        <v>2</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F22" s="4">
+        <v>26</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="I22" s="7">
+        <v>32123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D23" s="4">
+        <v>3</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="4">
+        <v>25</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="I23" s="7">
+        <v>32123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D24" s="4">
+        <v>3</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="F24" s="4">
+        <v>6</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I24" s="7">
+        <v>37792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>530</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D25" s="4">
+        <v>3</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="I25" s="7">
+        <v>40285</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D26" s="4">
+        <v>2</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="4">
+        <v>2</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="I26" s="7">
+        <v>36901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D27" s="4">
+        <v>2</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="F27" s="4">
+        <v>35</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I27" s="7">
+        <v>43029</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D28" s="4">
+        <v>2</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I28" s="7">
+        <v>37792</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D29" s="4">
+        <v>2</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="F29" s="4">
+        <v>29</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="I29" s="7">
+        <v>40824</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D30" s="4">
+        <v>2</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F30" s="4">
+        <v>24</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="I30" s="7">
+        <v>32452</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
+      </c>
+      <c r="E31" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="I31" s="7">
+        <v>32452</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F32" s="4">
+        <v>7</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I32" s="7">
+        <v>37792</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>534</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D33" s="4">
+        <v>2</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F33" s="4">
+        <v>12</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I33" s="7">
+        <v>42365</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D34" s="4">
+        <v>2</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="F34" s="4">
+        <v>10</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="I34" s="7">
+        <v>40285</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>535</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D35" s="4">
+        <v>2</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="F35" s="4">
+        <v>26</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I35" s="7">
+        <v>43029</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B36" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="4">
+        <v>28</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="I36" s="7">
+        <v>32816</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D37" s="4">
+        <v>3</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="H37" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="I37" s="7">
+        <v>40922</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="10" t="s">
+        <v>536</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D38" s="4">
+        <v>3</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="F38" s="4">
+        <v>20</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H38" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="I38" s="7">
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B39" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C39" t="s">
+        <v>390</v>
+      </c>
+      <c r="D39" s="4">
+        <v>2</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="F39" s="4">
+        <v>22</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="I39" s="7">
+        <v>32123</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="C40" t="s">
+        <v>390</v>
+      </c>
+      <c r="D40" s="4">
+        <v>2</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F40" s="4">
+        <v>11</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I40" s="7">
+        <v>42365</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D41" s="4">
+        <v>2</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" s="4">
+        <v>23</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="I41" s="7">
+        <v>32123</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="B42" s="10" t="s">
+        <v>538</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D42" s="4">
+        <v>2</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F42" s="4">
+        <v>14</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="I42" s="7">
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D43" s="4">
+        <v>3</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43" s="4">
+        <v>16</v>
+      </c>
+      <c r="G43" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="I43" s="7">
+        <v>32123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B44" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D44" s="4">
+        <v>3</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F44" s="4">
+        <v>3</v>
+      </c>
+      <c r="G44" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I44" s="7">
+        <v>37792</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B45" s="10" t="s">
+        <v>539</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D45" s="4">
+        <v>3</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>446</v>
+      </c>
+      <c r="F45" s="4">
+        <v>17</v>
+      </c>
+      <c r="G45" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H45" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="I45" s="7">
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D46" s="4">
+        <v>2</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F46" s="4">
+        <v>8</v>
+      </c>
+      <c r="G46" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="I46" s="7">
+        <v>32816</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D47" s="4">
+        <v>2</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="F47" s="4">
+        <v>9</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="I47" s="7">
+        <v>40285</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B48" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D48" s="4">
+        <v>3</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F48" s="4">
+        <v>4</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H48" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="I48" s="7">
+        <v>40285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D49" s="4">
+        <v>3</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="F49" s="4">
+        <v>1</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="H49" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="I49" s="7">
+        <v>40285</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D50" s="4">
+        <v>3</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F50" s="4">
+        <v>15</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I50" s="7">
+        <v>41630</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D51" s="4">
+        <v>3</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="F51" s="4">
+        <v>17</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I51" s="7">
+        <v>37792</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D52" s="4">
+        <v>3</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F52" s="4">
+        <v>1</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>423</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>497</v>
+      </c>
+      <c r="I52" s="7">
+        <v>38381</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D53" s="4">
+        <v>3</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F53" s="4">
+        <v>1</v>
+      </c>
+      <c r="G53" s="10" t="s">
+        <v>424</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="I53" s="7">
+        <v>38381</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D54" s="4">
+        <v>2</v>
+      </c>
+      <c r="E54" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="4">
+        <v>14</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="I54" s="7">
+        <v>32123</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D55" s="4">
+        <v>2</v>
+      </c>
+      <c r="E55" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55" s="4">
+        <v>27</v>
+      </c>
+      <c r="G55" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="I55" s="7">
+        <v>32123</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D56" s="4">
+        <v>3</v>
+      </c>
+      <c r="E56" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F56" s="4">
+        <v>1</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="I56" s="7">
+        <v>37639</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D57" s="4">
+        <v>3</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="F57" s="4">
+        <v>1</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="H57" s="10" t="s">
+        <v>499</v>
+      </c>
+      <c r="I57" s="7">
+        <v>37639</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D58" s="4">
+        <v>3</v>
+      </c>
+      <c r="E58" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="F58" s="4">
+        <v>16</v>
+      </c>
+      <c r="G58" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I58" s="7">
+        <v>37792</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D59" s="4">
+        <v>2</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="F59" s="4">
+        <v>12</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="H59" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="I59" s="7">
+        <v>37792</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D60" s="4">
+        <v>2</v>
+      </c>
+      <c r="E60" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" s="4">
+        <v>13</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="H60" s="10" t="s">
+        <v>494</v>
+      </c>
+      <c r="I60" s="7">
+        <v>39961</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D61" s="4">
+        <v>2</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F61" s="4">
+        <v>10</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I61" s="7">
+        <v>42365</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>546</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D62" s="4">
+        <v>2</v>
+      </c>
+      <c r="E62" s="4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F62" s="4">
+        <v>11</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H62" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="I62" s="7">
+        <v>44878</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B63" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C63" t="s">
+        <v>390</v>
+      </c>
+      <c r="D63" s="4">
+        <v>2</v>
+      </c>
+      <c r="E63" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" s="4">
+        <v>2</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="I63" s="7">
+        <v>32858</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="C64" t="s">
+        <v>390</v>
+      </c>
+      <c r="D64" s="4">
+        <v>2</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="F64" s="4">
+        <v>32</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="I64" s="7">
+        <v>43029</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D65" s="4">
+        <v>2</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F65" s="4">
+        <v>4</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>486</v>
+      </c>
+      <c r="I65" s="7">
+        <v>32816</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B66" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D66" s="4">
+        <v>2</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F66" s="4">
+        <v>1</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="I66" s="7">
+        <v>32816</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D67" s="4">
+        <v>2</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="F67" s="4">
+        <v>10</v>
+      </c>
+      <c r="G67" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H67" s="10" t="s">
+        <v>484</v>
+      </c>
+      <c r="I67" s="7">
+        <v>35105</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="D68" s="4">
+        <v>2</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="F68" s="4">
+        <v>2</v>
+      </c>
+      <c r="G68" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="I68" s="7">
+        <v>43861</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E09BE35-9120-4923-A353-86817687B3EC}">
   <sheetPr>
     <tabColor rgb="FF748477"/>
@@ -8724,7 +11673,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6D9C6F-37C1-45A2-98C2-BF708C58F387}">
   <sheetPr>
     <tabColor rgb="FF748477"/>
@@ -8732,7 +11681,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8985,7 +11934,7 @@
         <v>420</v>
       </c>
       <c r="B10" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>453</v>
@@ -9006,7 +11955,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14465070-6DF1-4EEA-B8B5-4E369F56E899}">
   <sheetPr>
     <tabColor rgb="FF748477"/>
@@ -9267,7 +12216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BCCAA9E-AC45-43AE-85F4-7950AEE51496}">
   <sheetPr>
     <tabColor rgb="FF748477"/>
@@ -9524,7 +12473,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55F56AED-0B0A-4CFD-90C0-8CEF9EB6577F}">
   <sheetPr>
     <tabColor rgb="FF748477"/>
@@ -9735,7 +12684,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708C74A4-FB7C-42D9-97EA-DCD834E32E81}">
   <sheetPr>
     <tabColor rgb="FF748477"/>
@@ -10019,838 +12968,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E154859D-E9AA-4E11-9D9C-E60513ACA486}">
-  <sheetPr>
-    <tabColor rgb="FFFA9E0D"/>
-  </sheetPr>
-  <dimension ref="A1:J33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="43" style="10" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" style="7" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" customWidth="1"/>
-    <col min="8" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:10" s="23" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
-        <v>434</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>427</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>426</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>425</v>
-      </c>
-      <c r="F1" s="20" t="s">
-        <v>436</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>435</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>437</v>
-      </c>
-      <c r="I1" s="21" t="s">
-        <v>365</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="2">
-        <v>40285</v>
-      </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="3">
-        <v>1.29922666669347</v>
-      </c>
-      <c r="I2" s="3">
-        <v>103.845823333409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B3" s="1">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="2">
-        <v>40285</v>
-      </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3">
-        <v>1.29686999999999</v>
-      </c>
-      <c r="I3" s="3">
-        <v>103.85057999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="1">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="2">
-        <v>40285</v>
-      </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="3">
-        <v>1.29338</v>
-      </c>
-      <c r="I4" s="3">
-        <v>103.85576</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="1">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="2">
-        <v>40285</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="3">
-        <v>1.2926450000003999</v>
-      </c>
-      <c r="I5" s="3">
-        <v>103.861064999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B6" s="1">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="2">
-        <v>40285</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="3">
-        <v>1.2996799999999999</v>
-      </c>
-      <c r="I6" s="3">
-        <v>103.86358</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B7" s="1">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="2">
-        <v>40285</v>
-      </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="3">
-        <v>1.30287</v>
-      </c>
-      <c r="I7" s="3">
-        <v>103.87542000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B8" s="1">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="D8" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="2">
-        <v>40285</v>
-      </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="3">
-        <v>1.30622999999999</v>
-      </c>
-      <c r="I8" s="3">
-        <v>103.88252</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B9" s="1">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="2">
-        <v>40285</v>
-      </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="3">
-        <v>1.3084</v>
-      </c>
-      <c r="I9" s="3">
-        <v>103.88866</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="1">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="2">
-        <v>40285</v>
-      </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="3">
-        <v>1.31778500003273</v>
-      </c>
-      <c r="I10" s="3">
-        <v>103.89256499994799</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B11" s="1">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="2">
-        <v>40285</v>
-      </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="3">
-        <v>1.3263600000344</v>
-      </c>
-      <c r="I11" s="3">
-        <v>103.88988499997799</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" s="1">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="2">
-        <v>40285</v>
-      </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="3">
-        <v>1.33544</v>
-      </c>
-      <c r="I12" s="3">
-        <v>103.88831999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B13" s="1">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="2">
-        <v>39961</v>
-      </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="3">
-        <v>1.3428599999999999</v>
-      </c>
-      <c r="I13" s="3">
-        <v>103.87973</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B14" s="1">
-        <v>13</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2">
-        <v>39961</v>
-      </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="3">
-        <v>1.3501500000855</v>
-      </c>
-      <c r="I14" s="3">
-        <v>103.872915000161</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B15" s="1">
-        <v>14</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="2">
-        <v>39961</v>
-      </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="3">
-        <v>1.35161</v>
-      </c>
-      <c r="I15" s="3">
-        <v>103.86414000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B16" s="1">
-        <v>15</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="2">
-        <v>39961</v>
-      </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="3">
-        <v>1.3513600000044199</v>
-      </c>
-      <c r="I16" s="3">
-        <v>103.848374999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="1">
-        <v>16</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="2">
-        <v>39961</v>
-      </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="3">
-        <v>1.34904</v>
-      </c>
-      <c r="I17" s="3">
-        <v>103.83938000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B18" s="1">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>187</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="2">
-        <v>40824</v>
-      </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="3">
-        <v>1.3374300000118</v>
-      </c>
-      <c r="I18" s="3">
-        <v>103.83994000000899</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B19" s="1">
-        <v>18</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="E19" s="1"/>
-      <c r="F19" s="2" t="s">
-        <v>507</v>
-      </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B20" s="1">
-        <v>19</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="2">
-        <v>40824</v>
-      </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="3">
-        <v>1.3222650000482199</v>
-      </c>
-      <c r="I20" s="3">
-        <v>103.815499999941</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B21" s="1">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="E21" s="1"/>
-      <c r="F21" s="2">
-        <v>40824</v>
-      </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="3">
-        <v>1.31741</v>
-      </c>
-      <c r="I21" s="3">
-        <v>103.80755000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B22" s="1">
-        <v>21</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="E22" s="1"/>
-      <c r="F22" s="2">
-        <v>40824</v>
-      </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="3">
-        <v>1.3124</v>
-      </c>
-      <c r="I22" s="3">
-        <v>103.7962</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B23" s="1">
-        <v>22</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="2">
-        <v>40824</v>
-      </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="3">
-        <v>1.3068650000088999</v>
-      </c>
-      <c r="I23" s="3">
-        <v>103.79029000003101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B24" s="1">
-        <v>23</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>195</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="2">
-        <v>40824</v>
-      </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="3">
-        <v>1.2993699999999899</v>
-      </c>
-      <c r="I24" s="3">
-        <v>103.78712</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B25" s="1">
-        <v>24</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="2">
-        <v>40824</v>
-      </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="3">
-        <v>1.29372</v>
-      </c>
-      <c r="I25" s="3">
-        <v>103.78452</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B26" s="1">
-        <v>25</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>200</v>
-      </c>
-      <c r="E26" s="1"/>
-      <c r="F26" s="2">
-        <v>40824</v>
-      </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="3">
-        <v>1.28268</v>
-      </c>
-      <c r="I26" s="3">
-        <v>103.78175</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B27" s="1">
-        <v>26</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>201</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="2">
-        <v>40824</v>
-      </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="3">
-        <v>1.2761899999999999</v>
-      </c>
-      <c r="I27" s="3">
-        <v>103.79155</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B28" s="1">
-        <v>27</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="2">
-        <v>40824</v>
-      </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="3">
-        <v>1.2723199999999899</v>
-      </c>
-      <c r="I28" s="3">
-        <v>103.80278</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B29" s="1">
-        <v>28</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2">
-        <v>40824</v>
-      </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="3">
-        <v>1.2706299999999899</v>
-      </c>
-      <c r="I29" s="3">
-        <v>103.80981</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="1">
-        <v>29</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>125</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="2">
-        <v>40824</v>
-      </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="3">
-        <v>1.2653450000191999</v>
-      </c>
-      <c r="I30" s="3">
-        <v>103.82249499999401</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B31" s="1">
-        <v>30</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="D31" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B32" s="1">
-        <v>31</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="B33" s="1">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>507</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>